--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM25.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>2.553174566443041</v>
+        <v>1.502012710592518</v>
       </c>
       <c r="C2">
-        <v>17.11287876267535</v>
+        <v>10.06737328273499</v>
       </c>
       <c r="D2">
-        <v>0.008138041553437031</v>
+        <v>0.004787546458141959</v>
       </c>
       <c r="E2">
-        <v>0.7740727008526525</v>
+        <v>0.4553809406080431</v>
       </c>
       <c r="F2">
-        <v>2.652491788710918</v>
+        <v>1.560440258864285</v>
       </c>
       <c r="G2">
-        <v>4.309213679643134</v>
+        <v>2.535076842983091</v>
       </c>
       <c r="H2">
-        <v>0.936400490331264</v>
+        <v>0.5508771147763991</v>
       </c>
       <c r="I2">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="J2">
-        <v>3.988084413724555</v>
+        <v>2.346158997140328</v>
       </c>
       <c r="K2">
-        <v>5.281941109738045</v>
+        <v>3.107324813469504</v>
       </c>
       <c r="L2">
-        <v>44.89441162407948</v>
+        <v>26.41103267289824</v>
       </c>
       <c r="M2">
-        <v>28.24992929477379</v>
+        <v>16.61921336354374</v>
       </c>
       <c r="N2">
-        <v>0.1496223407863732</v>
+        <v>0.08802165766629404</v>
       </c>
       <c r="O2">
-        <v>0.6218392712105527</v>
+        <v>0.3658231997058696</v>
       </c>
       <c r="P2">
-        <v>118.4724383320462</v>
+        <v>69.6964126810683</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>2.553174566443041</v>
+        <v>1.502012710592518</v>
       </c>
       <c r="C3">
-        <v>17.11287876267535</v>
+        <v>10.06737328273499</v>
       </c>
       <c r="D3">
-        <v>0.01220706233015555</v>
+        <v>0.007181319687212938</v>
       </c>
       <c r="E3">
-        <v>1.161109051278979</v>
+        <v>0.6830714109120647</v>
       </c>
       <c r="F3">
-        <v>3.198593039327871</v>
+        <v>1.881707370983402</v>
       </c>
       <c r="G3">
-        <v>5.196404731334367</v>
+        <v>3.05700442830314</v>
       </c>
       <c r="H3">
-        <v>0.9190597405103148</v>
+        <v>0.5406756867249843</v>
       </c>
       <c r="I3">
-        <v>6.811717279976862</v>
+        <v>4.007280218893014</v>
       </c>
       <c r="J3">
-        <v>4.732526837619807</v>
+        <v>2.784108676606523</v>
       </c>
       <c r="K3">
-        <v>6.267903450222481</v>
+        <v>3.687358778650478</v>
       </c>
       <c r="L3">
-        <v>42.87416310099591</v>
+        <v>25.22253620261782</v>
       </c>
       <c r="M3">
-        <v>26.97868247650897</v>
+        <v>15.87134876218427</v>
       </c>
       <c r="N3">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O3">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P3">
-        <v>118.3327278405554</v>
+        <v>69.61422208713853</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>3.023276266483697</v>
+        <v>1.778569879073139</v>
       </c>
       <c r="C4">
-        <v>20.26377706185861</v>
+        <v>11.92102220958881</v>
       </c>
       <c r="D4">
-        <v>0.01017255194179629</v>
+        <v>0.005984433072677448</v>
       </c>
       <c r="E4">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="F4">
-        <v>3.588665361197124</v>
+        <v>2.111183879639914</v>
       </c>
       <c r="G4">
-        <v>5.830112625399535</v>
+        <v>3.429809846388888</v>
       </c>
       <c r="H4">
-        <v>1.05778573907791</v>
+        <v>0.6222871111363028</v>
       </c>
       <c r="I4">
-        <v>7.839901020350728</v>
+        <v>4.612152704763658</v>
       </c>
       <c r="J4">
-        <v>5.317445884966075</v>
+        <v>3.128211996187106</v>
       </c>
       <c r="K4">
-        <v>7.042588146317396</v>
+        <v>4.143099751292671</v>
       </c>
       <c r="L4">
-        <v>26.03875874196612</v>
+        <v>15.31839895028099</v>
       </c>
       <c r="M4">
-        <v>16.3849589909688</v>
+        <v>9.639143750855373</v>
       </c>
       <c r="N4">
-        <v>0.2992446815727465</v>
+        <v>0.1760433153325881</v>
       </c>
       <c r="O4">
-        <v>1.243678542421105</v>
+        <v>0.7316463994117391</v>
       </c>
       <c r="P4">
-        <v>98.90795649058745</v>
+        <v>58.1867804027839</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>3.462037853188311</v>
+        <v>2.036689902988383</v>
       </c>
       <c r="C5">
-        <v>23.20461547442968</v>
+        <v>13.65109454131906</v>
       </c>
       <c r="D5">
-        <v>0.006510433242749623</v>
+        <v>0.003830037166513567</v>
       </c>
       <c r="E5">
-        <v>0.6192581606821218</v>
+        <v>0.3643047524864346</v>
       </c>
       <c r="F5">
-        <v>3.666679825570973</v>
+        <v>2.157079181371216</v>
       </c>
       <c r="G5">
-        <v>5.956854204212568</v>
+        <v>3.504370930006038</v>
       </c>
       <c r="H5">
-        <v>1.144489488182656</v>
+        <v>0.6732942513933768</v>
       </c>
       <c r="I5">
-        <v>8.482515858084389</v>
+        <v>4.99019800843281</v>
       </c>
       <c r="J5">
-        <v>3.855148266600403</v>
+        <v>2.26795369723565</v>
       </c>
       <c r="K5">
-        <v>5.10587640608011</v>
+        <v>3.003747319687186</v>
       </c>
       <c r="L5">
-        <v>17.95776464963181</v>
+        <v>10.5644130691593</v>
       </c>
       <c r="M5">
-        <v>11.29997171790952</v>
+        <v>6.6476853454175</v>
       </c>
       <c r="N5">
-        <v>0.132997636254554</v>
+        <v>0.07824147348115029</v>
       </c>
       <c r="O5">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="P5">
-        <v>85.44746599292367</v>
+        <v>50.26807868766094</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>4.172413755471969</v>
+        <v>2.454598513136872</v>
       </c>
       <c r="C6">
-        <v>27.9659729043066</v>
+        <v>16.45216403078705</v>
       </c>
       <c r="D6">
-        <v>0.0142415727185148</v>
+        <v>0.008378206301748429</v>
       </c>
       <c r="E6">
-        <v>1.354627226492142</v>
+        <v>0.7969166460640756</v>
       </c>
       <c r="F6">
-        <v>3.666679825570973</v>
+        <v>2.157079181371216</v>
       </c>
       <c r="G6">
-        <v>5.956854204212568</v>
+        <v>3.504370930006038</v>
       </c>
       <c r="H6">
-        <v>0.9884227397941123</v>
+        <v>0.5814813989306437</v>
       </c>
       <c r="I6">
-        <v>7.325809150163791</v>
+        <v>4.309716461828336</v>
       </c>
       <c r="J6">
-        <v>2.89800800730651</v>
+        <v>1.704875537921973</v>
       </c>
       <c r="K6">
-        <v>3.83821053974298</v>
+        <v>2.257989364454506</v>
       </c>
       <c r="L6">
-        <v>8.754410266695501</v>
+        <v>5.150151371215156</v>
       </c>
       <c r="M6">
-        <v>5.508736212480888</v>
+        <v>3.24074660589103</v>
       </c>
       <c r="N6">
-        <v>0.3989929087636619</v>
+        <v>0.2347244204434508</v>
       </c>
       <c r="O6">
-        <v>1.658238056561474</v>
+        <v>0.9755285325489854</v>
       </c>
       <c r="P6">
-        <v>74.50161737028169</v>
+        <v>43.82872120090109</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>3.909156803449204</v>
+        <v>2.299726498787728</v>
       </c>
       <c r="C7">
-        <v>26.20146985676399</v>
+        <v>15.41412063174891</v>
       </c>
       <c r="D7">
-        <v>0.007731139475765179</v>
+        <v>0.004548169135234859</v>
       </c>
       <c r="E7">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="F7">
-        <v>2.496462859963216</v>
+        <v>1.468649655401679</v>
       </c>
       <c r="G7">
-        <v>4.055730522017067</v>
+        <v>2.385954675748791</v>
       </c>
       <c r="H7">
-        <v>1.421941485317846</v>
+        <v>0.8365171002160134</v>
       </c>
       <c r="I7">
-        <v>10.53888333883213</v>
+        <v>6.199942980174097</v>
       </c>
       <c r="J7">
-        <v>1.701582683189144</v>
+        <v>1.001027838779874</v>
       </c>
       <c r="K7">
-        <v>2.253628206821566</v>
+        <v>1.325791920413655</v>
       </c>
       <c r="L7">
-        <v>4.489441162407953</v>
+        <v>2.641103267289825</v>
       </c>
       <c r="M7">
-        <v>2.824992929477379</v>
+        <v>1.661921336354375</v>
       </c>
       <c r="N7">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O7">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P7">
-        <v>61.15069779485656</v>
+        <v>35.97447920587594</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>2.916719881141151</v>
+        <v>1.715883587550864</v>
       </c>
       <c r="C8">
-        <v>19.54957344737708</v>
+        <v>11.50086178616862</v>
       </c>
       <c r="D8">
-        <v>0.006510433242749623</v>
+        <v>0.003830037166513567</v>
       </c>
       <c r="E8">
-        <v>0.6192581606821218</v>
+        <v>0.3643047524864346</v>
       </c>
       <c r="F8">
-        <v>2.340433931215515</v>
+        <v>1.376859051939075</v>
       </c>
       <c r="G8">
-        <v>3.802247364391001</v>
+        <v>2.236832508514493</v>
       </c>
       <c r="H8">
-        <v>1.179170987824555</v>
+        <v>0.6936971074962064</v>
       </c>
       <c r="I8">
-        <v>8.739561793177858</v>
+        <v>5.14141612990047</v>
       </c>
       <c r="J8">
-        <v>1.302774241816688</v>
+        <v>0.7664119390658407</v>
       </c>
       <c r="K8">
-        <v>1.725434095847762</v>
+        <v>1.015059439066704</v>
       </c>
       <c r="L8">
-        <v>5.836273511130335</v>
+        <v>3.433434247476772</v>
       </c>
       <c r="M8">
-        <v>3.672490808320592</v>
+        <v>2.160497737260687</v>
       </c>
       <c r="N8">
-        <v>0.08312352265909623</v>
+        <v>0.04890092092571893</v>
       </c>
       <c r="O8">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="P8">
-        <v>52.11903844061014</v>
+        <v>30.66122435596611</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>2.302453659754688</v>
+        <v>1.354515554069521</v>
       </c>
       <c r="C9">
-        <v>15.43239966977761</v>
+        <v>9.078760521746283</v>
       </c>
       <c r="D9">
-        <v>0.008951845708780735</v>
+        <v>0.005266301103956155</v>
       </c>
       <c r="E9">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="F9">
-        <v>1.716318216224712</v>
+        <v>1.009696638088654</v>
       </c>
       <c r="G9">
-        <v>2.788314733886733</v>
+        <v>1.640343839577294</v>
       </c>
       <c r="H9">
-        <v>1.248533987108352</v>
+        <v>0.7345028197018656</v>
       </c>
       <c r="I9">
-        <v>9.253653663364789</v>
+        <v>5.443852372835794</v>
       </c>
       <c r="J9">
-        <v>0.8242041121697412</v>
+        <v>0.4848728594090013</v>
       </c>
       <c r="K9">
-        <v>1.091601162679196</v>
+        <v>0.6421804614503639</v>
       </c>
       <c r="L9">
-        <v>4.489441162407953</v>
+        <v>2.641103267289825</v>
       </c>
       <c r="M9">
-        <v>2.824992929477379</v>
+        <v>1.661921336354375</v>
       </c>
       <c r="N9">
-        <v>0.04987411359545774</v>
+        <v>0.02934055255543135</v>
       </c>
       <c r="O9">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="P9">
-        <v>43.08949898416349</v>
+        <v>25.34921662541984</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.702812824591716</v>
+        <v>1.001751521385354</v>
       </c>
       <c r="C10">
-        <v>11.41325383926384</v>
+        <v>6.714328335048294</v>
       </c>
       <c r="D10">
-        <v>0.006103531165077773</v>
+        <v>0.003590659843606469</v>
       </c>
       <c r="E10">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="F10">
-        <v>0.4680867862431032</v>
+        <v>0.2753718103878148</v>
       </c>
       <c r="G10">
-        <v>0.7604494728781999</v>
+        <v>0.4473665017028985</v>
       </c>
       <c r="H10">
-        <v>0.9537412401522137</v>
+        <v>0.5610785428278139</v>
       </c>
       <c r="I10">
-        <v>7.068763215070326</v>
+        <v>4.158498340360675</v>
       </c>
       <c r="J10">
-        <v>0.797616882744911</v>
+        <v>0.4692317994280657</v>
       </c>
       <c r="K10">
-        <v>1.056388221947609</v>
+        <v>0.6214649626939006</v>
       </c>
       <c r="L10">
-        <v>4.264969104287552</v>
+        <v>2.509048103925333</v>
       </c>
       <c r="M10">
-        <v>2.683743283003509</v>
+        <v>1.578825269536656</v>
       </c>
       <c r="N10">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O10">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P10">
-        <v>31.8422008838761</v>
+        <v>18.73251875897113</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>1.011240990309682</v>
+        <v>0.5949051979760877</v>
       </c>
       <c r="C11">
-        <v>6.777932341354235</v>
+        <v>3.98740480265445</v>
       </c>
       <c r="D11">
-        <v>0.005696629087405921</v>
+        <v>0.00335128252069937</v>
       </c>
       <c r="E11">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="F11">
-        <v>0.8581591081123559</v>
+        <v>0.5048483190443271</v>
       </c>
       <c r="G11">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="H11">
-        <v>0.5549039942703787</v>
+        <v>0.3264456976452736</v>
       </c>
       <c r="I11">
-        <v>4.112734961495462</v>
+        <v>2.419489943482575</v>
       </c>
       <c r="J11">
-        <v>0.7710296533200807</v>
+        <v>0.4535907394471303</v>
       </c>
       <c r="K11">
-        <v>1.021175281216022</v>
+        <v>0.6007494639374372</v>
       </c>
       <c r="L11">
-        <v>3.59155292992636</v>
+        <v>2.11288261383186</v>
       </c>
       <c r="M11">
-        <v>2.259994343581903</v>
+        <v>1.3295370690835</v>
       </c>
       <c r="N11">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O11">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P11">
-        <v>23.0718644039912</v>
+        <v>13.57299812058699</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.6330702893880861</v>
+        <v>0.3724303202205672</v>
       </c>
       <c r="C12">
-        <v>4.243209709566804</v>
+        <v>2.496247221496482</v>
       </c>
       <c r="D12">
-        <v>0.004882824932062219</v>
+        <v>0.002872527874885176</v>
       </c>
       <c r="E12">
-        <v>0.4644436205115914</v>
+        <v>0.2732285643648258</v>
       </c>
       <c r="F12">
-        <v>0.156028928747701</v>
+        <v>0.09179060346260497</v>
       </c>
       <c r="G12">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="H12">
-        <v>0.3121334967770881</v>
+        <v>0.1836257049254664</v>
       </c>
       <c r="I12">
-        <v>2.313413415841197</v>
+        <v>1.360963093208948</v>
       </c>
       <c r="J12">
-        <v>0.292459523673134</v>
+        <v>0.1720516597902907</v>
       </c>
       <c r="K12">
-        <v>0.3873423480474567</v>
+        <v>0.2278704863210969</v>
       </c>
       <c r="L12">
-        <v>2.469192639324372</v>
+        <v>1.452606797009403</v>
       </c>
       <c r="M12">
-        <v>1.553746111212558</v>
+        <v>0.9140567349949059</v>
       </c>
       <c r="P12">
-        <v>13.08340606564812</v>
+        <v>7.696865880903777</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.3719026782543874</v>
+        <v>0.2187874488424454</v>
       </c>
       <c r="C13">
-        <v>2.492710654464986</v>
+        <v>1.466442262133248</v>
       </c>
       <c r="D13">
-        <v>0.00244141246603111</v>
+        <v>0.001436263937442588</v>
       </c>
       <c r="E13">
-        <v>0.2322218102557957</v>
+        <v>0.1366142821824129</v>
       </c>
       <c r="F13">
-        <v>0.156028928747701</v>
+        <v>0.09179060346260497</v>
       </c>
       <c r="G13">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="H13">
-        <v>0.156066748388544</v>
+        <v>0.0918128524627332</v>
       </c>
       <c r="I13">
-        <v>1.156706707920599</v>
+        <v>0.6804815466044742</v>
       </c>
       <c r="J13">
-        <v>0.7710296533200807</v>
+        <v>0.4535907394471303</v>
       </c>
       <c r="K13">
-        <v>1.021175281216022</v>
+        <v>0.6007494639374372</v>
       </c>
       <c r="L13">
-        <v>3.59155292992636</v>
+        <v>2.11288261383186</v>
       </c>
       <c r="M13">
-        <v>2.259994343581903</v>
+        <v>1.3295370690835</v>
       </c>
       <c r="P13">
-        <v>12.46531430616848</v>
+        <v>7.333247313159587</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2256488160195159</v>
+        <v>0.1327474408706972</v>
       </c>
       <c r="C14">
-        <v>1.512431183607969</v>
+        <v>0.8897514848898358</v>
       </c>
       <c r="D14">
-        <v>0.002034510388359258</v>
+        <v>0.00119688661453549</v>
       </c>
       <c r="E14">
-        <v>0.1935181752131631</v>
+        <v>0.1138452351520108</v>
       </c>
       <c r="F14">
-        <v>0.2340433931215516</v>
+        <v>0.1376859051939074</v>
       </c>
       <c r="G14">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="H14">
-        <v>0.01734074982094934</v>
+        <v>0.0102014280514148</v>
       </c>
       <c r="I14">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="J14">
-        <v>0.797616882744911</v>
+        <v>0.4692317994280657</v>
       </c>
       <c r="K14">
-        <v>1.056388221947609</v>
+        <v>0.6214649626939006</v>
       </c>
       <c r="L14">
-        <v>2.918136755565167</v>
+        <v>1.716717123738386</v>
       </c>
       <c r="M14">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="P14">
-        <v>9.302151796575325</v>
+        <v>5.472383446848378</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,49 +1112,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1984873844616111</v>
+        <v>0.1167685822473725</v>
       </c>
       <c r="C15">
-        <v>1.33037928187738</v>
+        <v>0.7826517691160593</v>
       </c>
       <c r="D15">
-        <v>0.003662118699046665</v>
+        <v>0.002154395906163881</v>
       </c>
       <c r="E15">
-        <v>0.3483327153836935</v>
+        <v>0.2049214232736194</v>
       </c>
       <c r="F15">
-        <v>0.156028928747701</v>
+        <v>0.09179060346260497</v>
       </c>
       <c r="G15">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="H15">
-        <v>0.052022249462848</v>
+        <v>0.0306042841542444</v>
       </c>
       <c r="I15">
-        <v>0.3855689026401996</v>
+        <v>0.2268271822014913</v>
       </c>
       <c r="J15">
-        <v>0.4785701296469468</v>
+        <v>0.2815390796568394</v>
       </c>
       <c r="K15">
-        <v>0.6338329331685655</v>
+        <v>0.3728789776163404</v>
       </c>
       <c r="L15">
-        <v>2.918136755565167</v>
+        <v>1.716717123738386</v>
       </c>
       <c r="M15">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="N15">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O15">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P15">
-        <v>8.68046791832807</v>
+        <v>5.106651663612449</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,43 +1162,43 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1755046346818455</v>
+        <v>0.1032480095660978</v>
       </c>
       <c r="C16">
-        <v>1.176335365028421</v>
+        <v>0.6920289326920941</v>
       </c>
       <c r="D16">
-        <v>0.001220706233015555</v>
+        <v>0.0007181319687212939</v>
       </c>
       <c r="E16">
-        <v>0.1161109051278979</v>
+        <v>0.06830714109120646</v>
       </c>
       <c r="F16">
-        <v>0.156028928747701</v>
+        <v>0.09179060346260497</v>
       </c>
       <c r="G16">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="H16">
-        <v>0.1387259985675947</v>
+        <v>0.08161142441131841</v>
       </c>
       <c r="I16">
-        <v>1.028183740373866</v>
+        <v>0.6048724858706437</v>
       </c>
       <c r="J16">
-        <v>0.425395670797286</v>
+        <v>0.2502569596949684</v>
       </c>
       <c r="K16">
-        <v>0.5634070517053915</v>
+        <v>0.3314479801034136</v>
       </c>
       <c r="L16">
-        <v>2.918136755565167</v>
+        <v>1.716717123738386</v>
       </c>
       <c r="M16">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="P16">
-        <v>8.788778318614549</v>
+        <v>5.170369828464098</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,49 +1206,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.4533869729281012</v>
+        <v>0.2667240247124194</v>
       </c>
       <c r="C17">
-        <v>3.038866359656754</v>
+        <v>1.787741409454577</v>
       </c>
       <c r="D17">
-        <v>0.003662118699046665</v>
+        <v>0.002154395906163881</v>
       </c>
       <c r="E17">
-        <v>0.3483327153836935</v>
+        <v>0.2049214232736194</v>
       </c>
       <c r="F17">
-        <v>0.624115714990804</v>
+        <v>0.3671624138504199</v>
       </c>
       <c r="G17">
-        <v>1.013932630504267</v>
+        <v>0.5964886689371978</v>
       </c>
       <c r="H17">
-        <v>0.104044498925696</v>
+        <v>0.06120856830848879</v>
       </c>
       <c r="I17">
-        <v>0.7711378052803992</v>
+        <v>0.4536543644029825</v>
       </c>
       <c r="J17">
-        <v>1.036901947568385</v>
+        <v>0.6100013392564855</v>
       </c>
       <c r="K17">
-        <v>1.373304688531892</v>
+        <v>0.8079044515020709</v>
       </c>
       <c r="L17">
-        <v>5.162857336769143</v>
+        <v>3.037268757383296</v>
       </c>
       <c r="M17">
-        <v>3.248741868898986</v>
+        <v>1.911209536807531</v>
       </c>
       <c r="N17">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O17">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P17">
-        <v>17.26500261502571</v>
+        <v>10.15686656016994</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1256,49 +1256,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>1.186745624991528</v>
+        <v>0.6981532075421855</v>
       </c>
       <c r="C18">
-        <v>7.954267706382653</v>
+        <v>4.679433735346541</v>
       </c>
       <c r="D18">
-        <v>0.00284831454370296</v>
+        <v>0.001675641260349685</v>
       </c>
       <c r="E18">
-        <v>0.2709254452984283</v>
+        <v>0.1593833292128151</v>
       </c>
       <c r="F18">
-        <v>1.40426035872931</v>
+        <v>0.8261154311634445</v>
       </c>
       <c r="G18">
-        <v>2.2813484186346</v>
+        <v>1.342099505108695</v>
       </c>
       <c r="H18">
-        <v>0.6242669935541761</v>
+        <v>0.3672514098509328</v>
       </c>
       <c r="I18">
-        <v>4.626826831682394</v>
+        <v>2.721926186417897</v>
       </c>
       <c r="J18">
-        <v>1.223012553542197</v>
+        <v>0.719488759123034</v>
       </c>
       <c r="K18">
-        <v>1.619795273653001</v>
+        <v>0.9529129427973143</v>
       </c>
       <c r="L18">
-        <v>11.44807496414028</v>
+        <v>6.734813331589051</v>
       </c>
       <c r="M18">
-        <v>7.203731970167315</v>
+        <v>4.237899407703655</v>
       </c>
       <c r="N18">
-        <v>0.066498818127277</v>
+        <v>0.03912073674057515</v>
       </c>
       <c r="O18">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="P18">
-        <v>40.18897628287377</v>
+        <v>23.64286171261465</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>2.283649591753063</v>
+        <v>1.343453267330297</v>
       </c>
       <c r="C19">
-        <v>15.30636373781029</v>
+        <v>9.004614564672133</v>
       </c>
       <c r="D19">
-        <v>0.006917335320421476</v>
+        <v>0.004069414489420665</v>
       </c>
       <c r="E19">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="F19">
-        <v>2.028376073720113</v>
+        <v>1.193277845013865</v>
       </c>
       <c r="G19">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="H19">
-        <v>1.231193237287403</v>
+        <v>0.7243013916504506</v>
       </c>
       <c r="I19">
-        <v>9.12513069581806</v>
+        <v>5.368243312101962</v>
       </c>
       <c r="J19">
-        <v>2.339676189385072</v>
+        <v>1.376413278322326</v>
       </c>
       <c r="K19">
-        <v>3.098738784379654</v>
+        <v>1.822963890568775</v>
       </c>
       <c r="L19">
-        <v>16.16198818466862</v>
+        <v>9.507971762243361</v>
       </c>
       <c r="M19">
-        <v>10.16997454611857</v>
+        <v>5.982916810875747</v>
       </c>
       <c r="N19">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O19">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P19">
-        <v>66.21955896245615</v>
+        <v>38.95645074907918</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>3.930050212339899</v>
+        <v>2.312017928497977</v>
       </c>
       <c r="C20">
-        <v>26.34150978117214</v>
+        <v>15.49650502849796</v>
       </c>
       <c r="D20">
-        <v>0.007731139475765179</v>
+        <v>0.004548169135234859</v>
       </c>
       <c r="E20">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="F20">
-        <v>2.730506253084768</v>
+        <v>1.606335560595586</v>
       </c>
       <c r="G20">
-        <v>4.435955258456166</v>
+        <v>2.609637926600241</v>
       </c>
       <c r="H20">
-        <v>1.491304484601643</v>
+        <v>0.8773228124216725</v>
       </c>
       <c r="I20">
-        <v>11.05297520901906</v>
+        <v>6.502379223109418</v>
       </c>
       <c r="J20">
-        <v>2.89800800730651</v>
+        <v>1.704875537921973</v>
       </c>
       <c r="K20">
-        <v>3.83821053974298</v>
+        <v>2.257989364454506</v>
       </c>
       <c r="L20">
-        <v>22.67167787016015</v>
+        <v>13.33757149981362</v>
       </c>
       <c r="M20">
-        <v>14.26621429386077</v>
+        <v>8.392702748589592</v>
       </c>
       <c r="N20">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O20">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P20">
-        <v>94.91381985636113</v>
+        <v>55.83706093146353</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>4.400151912380558</v>
+        <v>2.588575096978594</v>
       </c>
       <c r="C21">
-        <v>29.49240808035541</v>
+        <v>17.3501539553518</v>
       </c>
       <c r="D21">
-        <v>0.008544943631108885</v>
+        <v>0.005026923781049057</v>
       </c>
       <c r="E21">
-        <v>0.812776335895285</v>
+        <v>0.4781499876384451</v>
       </c>
       <c r="F21">
-        <v>3.588665361197124</v>
+        <v>2.111183879639914</v>
       </c>
       <c r="G21">
-        <v>5.830112625399535</v>
+        <v>3.429809846388888</v>
       </c>
       <c r="H21">
-        <v>1.265874736929302</v>
+        <v>0.7447042477532799</v>
       </c>
       <c r="I21">
-        <v>9.382176630911527</v>
+        <v>5.519461433569623</v>
       </c>
       <c r="J21">
-        <v>3.296816448678965</v>
+        <v>1.939491437636005</v>
       </c>
       <c r="K21">
-        <v>4.366404650716784</v>
+        <v>2.568721845801456</v>
       </c>
       <c r="L21">
-        <v>27.1611190325681</v>
+        <v>15.97867476710344</v>
       </c>
       <c r="M21">
-        <v>17.09120722333815</v>
+        <v>10.05462408494397</v>
       </c>
       <c r="N21">
-        <v>0.6816128858045889</v>
+        <v>0.4009875515908952</v>
       </c>
       <c r="O21">
-        <v>2.832823346625852</v>
+        <v>1.666527909771183</v>
       </c>
       <c r="P21">
-        <v>110.2106942144323</v>
+        <v>64.83609296794853</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>3.073420447821368</v>
+        <v>1.808069310377737</v>
       </c>
       <c r="C22">
-        <v>20.59987288043817</v>
+        <v>12.11874476178656</v>
       </c>
       <c r="D22">
-        <v>0.0134277685631711</v>
+        <v>0.007899451655934229</v>
       </c>
       <c r="E22">
-        <v>1.277219956406877</v>
+        <v>0.7513785520032713</v>
       </c>
       <c r="F22">
-        <v>3.588665361197124</v>
+        <v>2.111183879639914</v>
       </c>
       <c r="G22">
-        <v>5.830112625399535</v>
+        <v>3.429809846388888</v>
       </c>
       <c r="H22">
-        <v>1.144489488182656</v>
+        <v>0.6732942513933768</v>
       </c>
       <c r="I22">
-        <v>8.482515858084389</v>
+        <v>4.99019800843281</v>
       </c>
       <c r="J22">
-        <v>4.519829002221162</v>
+        <v>2.65898019675904</v>
       </c>
       <c r="K22">
-        <v>5.986199924369786</v>
+        <v>3.52163478859877</v>
       </c>
       <c r="L22">
-        <v>48.48596455400587</v>
+        <v>28.52391528673012</v>
       </c>
       <c r="M22">
-        <v>30.50992363835568</v>
+        <v>17.94875043262725</v>
       </c>
       <c r="N22">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O22">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P22">
-        <v>134.0259492463771</v>
+        <v>78.84642200464179</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>2.162467820187024</v>
+        <v>1.272162975010849</v>
       </c>
       <c r="C23">
-        <v>14.49413217624304</v>
+        <v>8.526785063527587</v>
       </c>
       <c r="D23">
-        <v>0.009765649864124438</v>
+        <v>0.005745055749770351</v>
       </c>
       <c r="E23">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="F23">
-        <v>2.886535181832468</v>
+        <v>1.698126164058192</v>
       </c>
       <c r="G23">
-        <v>4.689438416082234</v>
+        <v>2.75876009383454</v>
       </c>
       <c r="H23">
-        <v>0.936400490331264</v>
+        <v>0.5508771147763991</v>
       </c>
       <c r="I23">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="J23">
-        <v>5.71625432633853</v>
+        <v>3.362827895901138</v>
       </c>
       <c r="K23">
-        <v>7.570782257291199</v>
+        <v>4.453832232639621</v>
       </c>
       <c r="L23">
-        <v>44.44546750783871</v>
+        <v>26.14692234616927</v>
       </c>
       <c r="M23">
-        <v>27.96743000182605</v>
+        <v>16.45302122990831</v>
       </c>
       <c r="N23">
-        <v>0.1994964543818309</v>
+        <v>0.1173622102217254</v>
       </c>
       <c r="O23">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="P23">
-        <v>119.776416799044</v>
+        <v>70.46353305642839</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>2.436171476655143</v>
+        <v>1.43318070421512</v>
       </c>
       <c r="C24">
-        <v>16.32865518598974</v>
+        <v>9.606020660940258</v>
       </c>
       <c r="D24">
-        <v>0.01505537687385851</v>
+        <v>0.008856960947562623</v>
       </c>
       <c r="E24">
-        <v>1.432034496577407</v>
+        <v>0.8424547401248796</v>
       </c>
       <c r="F24">
-        <v>2.340433931215515</v>
+        <v>1.376859051939075</v>
       </c>
       <c r="G24">
-        <v>3.802247364391001</v>
+        <v>2.236832508514493</v>
       </c>
       <c r="H24">
-        <v>0.8843782408684161</v>
+        <v>0.5202728306221547</v>
       </c>
       <c r="I24">
-        <v>6.554671344883392</v>
+        <v>3.856062097425353</v>
       </c>
       <c r="J24">
-        <v>5.290858655541244</v>
+        <v>3.11257093620617</v>
       </c>
       <c r="K24">
-        <v>7.007375205585808</v>
+        <v>4.122384252536206</v>
       </c>
       <c r="L24">
-        <v>55.66907041385858</v>
+        <v>32.74968051439382</v>
       </c>
       <c r="M24">
-        <v>35.0299123255195</v>
+        <v>20.60782457079425</v>
       </c>
       <c r="N24">
-        <v>0.4322423178273003</v>
+        <v>0.2542847888137384</v>
       </c>
       <c r="O24">
-        <v>1.796424561274931</v>
+        <v>1.056822576928067</v>
       </c>
       <c r="P24">
-        <v>139.0195308970618</v>
+        <v>81.78410719440114</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>2.275292228196784</v>
+        <v>1.338536695446197</v>
       </c>
       <c r="C25">
-        <v>15.25034776804702</v>
+        <v>8.971660805972512</v>
       </c>
       <c r="D25">
-        <v>0.01383467064084295</v>
+        <v>0.00813882897884133</v>
       </c>
       <c r="E25">
-        <v>1.315923591449509</v>
+        <v>0.7741475990336733</v>
       </c>
       <c r="F25">
-        <v>3.822708754318674</v>
+        <v>2.248869784833822</v>
       </c>
       <c r="G25">
-        <v>6.210337361838633</v>
+        <v>3.653493097240338</v>
       </c>
       <c r="H25">
-        <v>1.161830238003606</v>
+        <v>0.6834956794447916</v>
       </c>
       <c r="I25">
-        <v>8.611038825631125</v>
+        <v>5.06580706916664</v>
       </c>
       <c r="J25">
-        <v>4.546416231645995</v>
+        <v>2.674621256739976</v>
       </c>
       <c r="K25">
-        <v>6.021412865101372</v>
+        <v>3.542350287355234</v>
       </c>
       <c r="L25">
-        <v>54.54671012325661</v>
+        <v>32.08940469757137</v>
       </c>
       <c r="M25">
-        <v>34.32366409315015</v>
+        <v>20.19234423670565</v>
       </c>
       <c r="N25">
-        <v>0.1994964543818309</v>
+        <v>0.1173622102217254</v>
       </c>
       <c r="O25">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="P25">
-        <v>139.1281322339429</v>
+        <v>81.84799651498527</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>2.317079045978176</v>
+        <v>1.363119554866697</v>
       </c>
       <c r="C26">
-        <v>15.53042761686332</v>
+        <v>9.136429599470624</v>
       </c>
       <c r="D26">
-        <v>0.008544943631108885</v>
+        <v>0.005026923781049057</v>
       </c>
       <c r="E26">
-        <v>0.812776335895285</v>
+        <v>0.4781499876384451</v>
       </c>
       <c r="F26">
-        <v>2.730506253084768</v>
+        <v>1.606335560595586</v>
       </c>
       <c r="G26">
-        <v>4.435955258456166</v>
+        <v>2.609637926600241</v>
       </c>
       <c r="H26">
-        <v>0.8150152415846187</v>
+        <v>0.4794671184164956</v>
       </c>
       <c r="I26">
-        <v>6.040579474696461</v>
+        <v>3.553625854490031</v>
       </c>
       <c r="J26">
-        <v>4.599590690495655</v>
+        <v>2.705903376701845</v>
       </c>
       <c r="K26">
-        <v>6.091838746564546</v>
+        <v>3.58378128486816</v>
       </c>
       <c r="L26">
-        <v>59.70956746002573</v>
+        <v>35.12667345495468</v>
       </c>
       <c r="M26">
-        <v>37.57240596204915</v>
+        <v>22.10355377351318</v>
       </c>
       <c r="N26">
-        <v>0.1994964543818309</v>
+        <v>0.1173622102217254</v>
       </c>
       <c r="O26">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="P26">
-        <v>141.6929025119875</v>
+        <v>83.35683089239326</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>2.626301497560476</v>
+        <v>1.545032714578392</v>
       </c>
       <c r="C27">
-        <v>17.60301849810387</v>
+        <v>10.35571867135669</v>
       </c>
       <c r="D27">
-        <v>0.006103531165077773</v>
+        <v>0.003590659843606469</v>
       </c>
       <c r="E27">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="F27">
-        <v>5.382998041795685</v>
+        <v>3.166775819459873</v>
       </c>
       <c r="G27">
-        <v>8.745168938099299</v>
+        <v>5.144714769583333</v>
       </c>
       <c r="H27">
-        <v>0.9017189906893653</v>
+        <v>0.5304742586735695</v>
       </c>
       <c r="I27">
-        <v>6.683194312430128</v>
+        <v>3.931671158159183</v>
       </c>
       <c r="J27">
-        <v>4.599590690495655</v>
+        <v>2.705903376701845</v>
       </c>
       <c r="K27">
-        <v>6.091838746564546</v>
+        <v>3.58378128486816</v>
       </c>
       <c r="L27">
-        <v>37.71130576422679</v>
+        <v>22.18526744523452</v>
       </c>
       <c r="M27">
-        <v>23.72994060760998</v>
+        <v>13.96013922537675</v>
       </c>
       <c r="N27">
-        <v>0.3324940906363849</v>
+        <v>0.1956036837028757</v>
       </c>
       <c r="O27">
-        <v>1.381865047134561</v>
+        <v>0.812940443790821</v>
       </c>
       <c r="P27">
-        <v>116.3760932821513</v>
+        <v>68.46314921678564</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>2.734947223792096</v>
+        <v>1.608948149071691</v>
       </c>
       <c r="C28">
-        <v>18.33122610502621</v>
+        <v>10.78411753445179</v>
       </c>
       <c r="D28">
-        <v>0.01139325817481184</v>
+        <v>0.006702565041398741</v>
       </c>
       <c r="E28">
-        <v>1.083701781193713</v>
+        <v>0.6375333168512606</v>
       </c>
       <c r="F28">
-        <v>2.652491788710918</v>
+        <v>1.560440258864285</v>
       </c>
       <c r="G28">
-        <v>4.309213679643134</v>
+        <v>2.535076842983091</v>
       </c>
       <c r="H28">
-        <v>0.8496967412265174</v>
+        <v>0.499869974519325</v>
       </c>
       <c r="I28">
-        <v>6.297625409789927</v>
+        <v>3.704843975957692</v>
       </c>
       <c r="J28">
-        <v>4.918637443593618</v>
+        <v>2.893596096473072</v>
       </c>
       <c r="K28">
-        <v>6.514394035343591</v>
+        <v>3.83236726994572</v>
       </c>
       <c r="L28">
-        <v>48.03702043776506</v>
+        <v>28.25980496000111</v>
       </c>
       <c r="M28">
-        <v>30.22742434540795</v>
+        <v>17.7825582989918</v>
       </c>
       <c r="N28">
-        <v>0.2493705679772887</v>
+        <v>0.1467027627771568</v>
       </c>
       <c r="O28">
-        <v>1.036398785350922</v>
+        <v>0.6097053328431158</v>
       </c>
       <c r="P28">
-        <v>127.2535416029958</v>
+        <v>74.86226733877253</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>2.868665040692548</v>
+        <v>1.68761329921729</v>
       </c>
       <c r="C29">
-        <v>19.22748162123836</v>
+        <v>11.31137767364578</v>
       </c>
       <c r="D29">
-        <v>0.005696629087405921</v>
+        <v>0.00335128252069937</v>
       </c>
       <c r="E29">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="F29">
-        <v>4.056752147440227</v>
+        <v>2.38655569002773</v>
       </c>
       <c r="G29">
-        <v>6.590562098277735</v>
+        <v>3.877176348091787</v>
       </c>
       <c r="H29">
-        <v>1.161830238003606</v>
+        <v>0.6834956794447916</v>
       </c>
       <c r="I29">
-        <v>8.611038825631125</v>
+        <v>5.06580706916664</v>
       </c>
       <c r="J29">
-        <v>4.440067313946671</v>
+        <v>2.612057016816233</v>
       </c>
       <c r="K29">
-        <v>5.880561102175025</v>
+        <v>3.45948829232938</v>
       </c>
       <c r="L29">
-        <v>36.14000135738399</v>
+        <v>21.26088130168308</v>
       </c>
       <c r="M29">
-        <v>22.7411930822929</v>
+        <v>13.37846675765272</v>
       </c>
       <c r="N29">
-        <v>0.2493705679772887</v>
+        <v>0.1467027627771568</v>
       </c>
       <c r="O29">
-        <v>1.036398785350922</v>
+        <v>0.6097053328431158</v>
       </c>
       <c r="P29">
-        <v>113.5514697000946</v>
+        <v>66.80144516464203</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>3.833940531442698</v>
+        <v>2.255477351830828</v>
       </c>
       <c r="C30">
-        <v>25.69732612889466</v>
+        <v>15.1175368034523</v>
       </c>
       <c r="D30">
-        <v>0.01017255194179629</v>
+        <v>0.005984433072677448</v>
       </c>
       <c r="E30">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="F30">
-        <v>3.198593039327871</v>
+        <v>1.881707370983402</v>
       </c>
       <c r="G30">
-        <v>5.196404731334367</v>
+        <v>3.05700442830314</v>
       </c>
       <c r="H30">
-        <v>1.109807988540757</v>
+        <v>0.6528913952905473</v>
       </c>
       <c r="I30">
-        <v>8.225469922990925</v>
+        <v>4.838979886965149</v>
       </c>
       <c r="J30">
-        <v>2.89800800730651</v>
+        <v>1.704875537921973</v>
       </c>
       <c r="K30">
-        <v>3.83821053974298</v>
+        <v>2.257989364454506</v>
       </c>
       <c r="L30">
-        <v>26.93664697444771</v>
+        <v>15.84661960373894</v>
       </c>
       <c r="M30">
-        <v>16.94995757686427</v>
+        <v>9.971528018126246</v>
       </c>
       <c r="N30">
-        <v>0.2161211589136501</v>
+        <v>0.1271423944068692</v>
       </c>
       <c r="O30">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="P30">
-        <v>99.97646230845149</v>
+        <v>58.81537405277066</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>3.716937441654802</v>
+        <v>2.186645345453429</v>
       </c>
       <c r="C31">
-        <v>24.91310255220904</v>
+        <v>14.65618418165757</v>
       </c>
       <c r="D31">
-        <v>0.01505537687385851</v>
+        <v>0.008856960947562623</v>
       </c>
       <c r="E31">
-        <v>1.432034496577407</v>
+        <v>0.8424547401248796</v>
       </c>
       <c r="F31">
-        <v>2.496462859963216</v>
+        <v>1.468649655401679</v>
       </c>
       <c r="G31">
-        <v>4.055730522017067</v>
+        <v>2.385954675748791</v>
       </c>
       <c r="H31">
-        <v>1.682052732632086</v>
+        <v>0.9895385209872357</v>
       </c>
       <c r="I31">
-        <v>12.46672785203313</v>
+        <v>7.334078891181552</v>
       </c>
       <c r="J31">
-        <v>1.382535930091179</v>
+        <v>0.8133351190086474</v>
       </c>
       <c r="K31">
-        <v>1.831072918042523</v>
+        <v>1.077205935336094</v>
       </c>
       <c r="L31">
-        <v>13.69279554534424</v>
+        <v>8.055364965233965</v>
       </c>
       <c r="M31">
-        <v>8.616228434906006</v>
+        <v>5.068860075880845</v>
       </c>
       <c r="N31">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O31">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P31">
-        <v>76.47217257612165</v>
+        <v>44.98798347971162</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>3.182066174052988</v>
+        <v>1.871984744871037</v>
       </c>
       <c r="C32">
-        <v>21.32808048736053</v>
+        <v>12.54714362488166</v>
       </c>
       <c r="D32">
-        <v>0.01831059349523332</v>
+        <v>0.01077197953081941</v>
       </c>
       <c r="E32">
-        <v>1.741663576918468</v>
+        <v>1.024607116368097</v>
       </c>
       <c r="F32">
-        <v>1.794332680598562</v>
+        <v>1.055591939819957</v>
       </c>
       <c r="G32">
-        <v>2.915056312699767</v>
+        <v>1.714904923194444</v>
       </c>
       <c r="H32">
-        <v>1.473963734780693</v>
+        <v>0.8671213843702578</v>
       </c>
       <c r="I32">
-        <v>10.92445224147232</v>
+        <v>6.426770162375589</v>
       </c>
       <c r="J32">
-        <v>1.43571038894084</v>
+        <v>0.8446172389705183</v>
       </c>
       <c r="K32">
-        <v>1.901498799505696</v>
+        <v>1.118636932849021</v>
       </c>
       <c r="L32">
-        <v>11.44807496414028</v>
+        <v>6.734813331589051</v>
       </c>
       <c r="M32">
-        <v>7.203731970167315</v>
+        <v>4.237899407703655</v>
       </c>
       <c r="N32">
-        <v>0.132997636254554</v>
+        <v>0.07824147348115029</v>
       </c>
       <c r="O32">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="P32">
-        <v>66.05268557924107</v>
+        <v>38.85828043752159</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>2.310811023310968</v>
+        <v>1.359432125953621</v>
       </c>
       <c r="C33">
-        <v>15.48841563954087</v>
+        <v>9.111714280445909</v>
       </c>
       <c r="D33">
-        <v>0.01912439765057702</v>
+        <v>0.01125073417663361</v>
       </c>
       <c r="E33">
-        <v>1.819070847003732</v>
+        <v>1.070145210428902</v>
       </c>
       <c r="F33">
-        <v>2.028376073720113</v>
+        <v>1.193277845013865</v>
       </c>
       <c r="G33">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="H33">
-        <v>1.473963734780693</v>
+        <v>0.8671213843702578</v>
       </c>
       <c r="I33">
-        <v>10.92445224147232</v>
+        <v>6.426770162375589</v>
       </c>
       <c r="J33">
-        <v>0.9571402592938936</v>
+        <v>0.5630781593136788</v>
       </c>
       <c r="K33">
-        <v>1.267665866337131</v>
+        <v>0.7457579552326807</v>
       </c>
       <c r="L33">
-        <v>7.18310585985272</v>
+        <v>4.22576522766372</v>
       </c>
       <c r="M33">
-        <v>4.519988687163806</v>
+        <v>2.659074138166999</v>
       </c>
       <c r="N33">
-        <v>0.132997636254554</v>
+        <v>0.07824147348115029</v>
       </c>
       <c r="O33">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="P33">
-        <v>51.97313933437407</v>
+        <v>30.57539304818523</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,43 +2056,43 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.725795574371481</v>
+        <v>1.015272094066628</v>
       </c>
       <c r="C34">
-        <v>11.5672977561128</v>
+        <v>6.80495117147226</v>
       </c>
       <c r="D34">
-        <v>0.01464847479618666</v>
+        <v>0.008617583624655523</v>
       </c>
       <c r="E34">
-        <v>1.393330861534774</v>
+        <v>0.8196856930944776</v>
       </c>
       <c r="F34">
-        <v>1.170216965607758</v>
+        <v>0.6884295259695373</v>
       </c>
       <c r="G34">
-        <v>1.9011236821955</v>
+        <v>1.118416254257246</v>
       </c>
       <c r="H34">
-        <v>0.9710819899731628</v>
+        <v>0.5712799708792289</v>
       </c>
       <c r="I34">
-        <v>7.197286182617058</v>
+        <v>4.234107401094507</v>
       </c>
       <c r="J34">
-        <v>0.5583318179214378</v>
+        <v>0.3284622595996459</v>
       </c>
       <c r="K34">
-        <v>0.7394717553633264</v>
+        <v>0.4350254738857304</v>
       </c>
       <c r="L34">
-        <v>7.18310585985272</v>
+        <v>4.22576522766372</v>
       </c>
       <c r="M34">
-        <v>4.519988687163806</v>
+        <v>2.659074138166999</v>
       </c>
       <c r="P34">
-        <v>38.94167960751001</v>
+        <v>22.90908679377464</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.203460352104084</v>
+        <v>0.7079863513103847</v>
       </c>
       <c r="C35">
-        <v>8.066299645909169</v>
+        <v>4.745341252745788</v>
       </c>
       <c r="D35">
-        <v>0.00732423739809333</v>
+        <v>0.004308791812327762</v>
       </c>
       <c r="E35">
-        <v>0.6966654307673871</v>
+        <v>0.4098428465472388</v>
       </c>
       <c r="F35">
-        <v>0.7801446437385051</v>
+        <v>0.4589530173130248</v>
       </c>
       <c r="G35">
-        <v>1.267415788130333</v>
+        <v>0.7456108361714974</v>
       </c>
       <c r="H35">
-        <v>0.7976744917636694</v>
+        <v>0.4692656903650807</v>
       </c>
       <c r="I35">
-        <v>5.912056507149727</v>
+        <v>3.478016793756201</v>
       </c>
       <c r="J35">
-        <v>0.5849190473462681</v>
+        <v>0.3441033195805815</v>
       </c>
       <c r="K35">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="L35">
-        <v>4.264969104287552</v>
+        <v>2.509048103925333</v>
       </c>
       <c r="M35">
-        <v>2.683743283003509</v>
+        <v>1.578825269536656</v>
       </c>
       <c r="N35">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O35">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P35">
-        <v>27.2107931414703</v>
+        <v>16.00789765845568</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.6873931525038957</v>
+        <v>0.4043880374672165</v>
       </c>
       <c r="C36">
-        <v>4.607313513027979</v>
+        <v>2.710446653044034</v>
       </c>
       <c r="D36">
-        <v>0.01586918102920221</v>
+        <v>0.00933571559337682</v>
       </c>
       <c r="E36">
-        <v>1.509441766662672</v>
+        <v>0.8879928341856842</v>
       </c>
       <c r="F36">
-        <v>0.0780144643738505</v>
+        <v>0.04589530173130248</v>
       </c>
       <c r="G36">
-        <v>0.1267415788130334</v>
+        <v>0.07456108361714972</v>
       </c>
       <c r="H36">
-        <v>0.3814964960608854</v>
+        <v>0.2244314171311255</v>
       </c>
       <c r="I36">
-        <v>2.827505286028131</v>
+        <v>1.66339933614427</v>
       </c>
       <c r="J36">
-        <v>1.728169912613974</v>
+        <v>1.016668898760809</v>
       </c>
       <c r="K36">
-        <v>2.288841147553153</v>
+        <v>1.346507419170118</v>
       </c>
       <c r="L36">
-        <v>6.060745569250733</v>
+        <v>3.565489410841264</v>
       </c>
       <c r="M36">
-        <v>3.81374045479446</v>
+        <v>2.243593804078406</v>
       </c>
       <c r="N36">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O36">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P36">
-        <v>24.21099047960052</v>
+        <v>14.24313711813944</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.3635453146981087</v>
+        <v>0.2138708769583454</v>
       </c>
       <c r="C37">
-        <v>2.436694684701728</v>
+        <v>1.433488503433624</v>
       </c>
       <c r="D37">
-        <v>0.008138041553437031</v>
+        <v>0.004787546458141959</v>
       </c>
       <c r="E37">
-        <v>0.7740727008526525</v>
+        <v>0.4553809406080431</v>
       </c>
       <c r="F37">
-        <v>0.0780144643738505</v>
+        <v>0.04589530173130248</v>
       </c>
       <c r="G37">
-        <v>0.1267415788130334</v>
+        <v>0.07456108361714972</v>
       </c>
       <c r="H37">
-        <v>0.1387259985675947</v>
+        <v>0.08161142441131841</v>
       </c>
       <c r="I37">
-        <v>1.028183740373866</v>
+        <v>0.6048724858706437</v>
       </c>
       <c r="J37">
-        <v>1.090076406418045</v>
+        <v>0.6412834592183561</v>
       </c>
       <c r="K37">
-        <v>1.443730569995066</v>
+        <v>0.8493354490149976</v>
       </c>
       <c r="L37">
-        <v>4.713913220528348</v>
+        <v>2.773158430654314</v>
       </c>
       <c r="M37">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="N37">
-        <v>0.04987411359545774</v>
+        <v>0.02934055255543135</v>
       </c>
       <c r="O37">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="P37">
-        <v>15.42523316749262</v>
+        <v>9.074544524272385</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,43 +2250,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.2611676111336988</v>
+        <v>0.1536428713781217</v>
       </c>
       <c r="C38">
-        <v>1.750499055101816</v>
+        <v>1.029804959363235</v>
       </c>
       <c r="D38">
-        <v>0.002034510388359258</v>
+        <v>0.00119688661453549</v>
       </c>
       <c r="E38">
-        <v>0.1935181752131631</v>
+        <v>0.1138452351520108</v>
       </c>
       <c r="F38">
-        <v>0.156028928747701</v>
+        <v>0.09179060346260497</v>
       </c>
       <c r="G38">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="J38">
-        <v>0.6912679650455897</v>
+        <v>0.4066675595043237</v>
       </c>
       <c r="K38">
-        <v>0.9155364590212615</v>
+        <v>0.5386029676680472</v>
       </c>
       <c r="L38">
-        <v>4.489441162407953</v>
+        <v>2.641103267289825</v>
       </c>
       <c r="M38">
-        <v>2.824992929477379</v>
+        <v>1.661921336354375</v>
       </c>
       <c r="N38">
-        <v>0.08312352265909623</v>
+        <v>0.04890092092571893</v>
       </c>
       <c r="O38">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="P38">
-        <v>11.96655973860573</v>
+        <v>7.039833885894803</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2294,43 +2294,43 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1901300209053327</v>
+        <v>0.1118520103632727</v>
       </c>
       <c r="C39">
-        <v>1.274363312114123</v>
+        <v>0.7496980104164357</v>
       </c>
       <c r="D39">
-        <v>0.00284831454370296</v>
+        <v>0.001675641260349685</v>
       </c>
       <c r="E39">
-        <v>0.2709254452984283</v>
+        <v>0.1593833292128151</v>
       </c>
       <c r="F39">
-        <v>0.3900723218692526</v>
+        <v>0.2294765086565124</v>
       </c>
       <c r="G39">
-        <v>0.6337078940651664</v>
+        <v>0.3728054180857487</v>
       </c>
       <c r="J39">
-        <v>0.3190467530979644</v>
+        <v>0.1876927197712263</v>
       </c>
       <c r="K39">
-        <v>0.4225552887790437</v>
+        <v>0.2485859850775602</v>
       </c>
       <c r="L39">
-        <v>4.040497046167155</v>
+        <v>2.37699294056084</v>
       </c>
       <c r="M39">
-        <v>2.542493636529642</v>
+        <v>1.495729202718937</v>
       </c>
       <c r="N39">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O39">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P39">
-        <v>10.17235799025836</v>
+        <v>5.984318972498382</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2338,49 +2338,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1922193617944023</v>
+        <v>0.1130811533342977</v>
       </c>
       <c r="C40">
-        <v>1.288367304554936</v>
+        <v>0.7579364500913411</v>
       </c>
       <c r="D40">
-        <v>0.00244141246603111</v>
+        <v>0.001436263937442588</v>
       </c>
       <c r="E40">
-        <v>0.2322218102557957</v>
+        <v>0.1366142821824129</v>
       </c>
       <c r="F40">
-        <v>0.156028928747701</v>
+        <v>0.09179060346260497</v>
       </c>
       <c r="G40">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="H40">
-        <v>0.156066748388544</v>
+        <v>0.0918128524627332</v>
       </c>
       <c r="I40">
-        <v>1.156706707920599</v>
+        <v>0.6804815466044742</v>
       </c>
       <c r="J40">
-        <v>0.5317445884966074</v>
+        <v>0.3128211996187105</v>
       </c>
       <c r="K40">
-        <v>0.7042588146317394</v>
+        <v>0.4143099751292671</v>
       </c>
       <c r="L40">
-        <v>3.59155292992636</v>
+        <v>2.11288261383186</v>
       </c>
       <c r="M40">
-        <v>2.259994343581903</v>
+        <v>1.3295370690835</v>
       </c>
       <c r="N40">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O40">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P40">
-        <v>10.69652202216778</v>
+        <v>6.292680589722313</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2388,49 +2388,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.4909951089313538</v>
+        <v>0.2888485981908689</v>
       </c>
       <c r="C41">
-        <v>3.290938223591415</v>
+        <v>1.936033323602883</v>
       </c>
       <c r="D41">
-        <v>0.003255216621374811</v>
+        <v>0.001915018583256784</v>
       </c>
       <c r="E41">
-        <v>0.3096290803410609</v>
+        <v>0.1821523762432173</v>
       </c>
       <c r="F41">
-        <v>0.312057857495402</v>
+        <v>0.1835812069252099</v>
       </c>
       <c r="G41">
-        <v>0.5069663152521334</v>
+        <v>0.2982443344685989</v>
       </c>
       <c r="H41">
-        <v>0.1213852487466453</v>
+        <v>0.07140999635990361</v>
       </c>
       <c r="I41">
-        <v>0.8996607728271323</v>
+        <v>0.5292634251368133</v>
       </c>
       <c r="J41">
-        <v>0.5051573590717771</v>
+        <v>0.297180139637775</v>
       </c>
       <c r="K41">
-        <v>0.6690458739001525</v>
+        <v>0.3935944763728037</v>
       </c>
       <c r="L41">
-        <v>5.611801453009935</v>
+        <v>3.30137908411228</v>
       </c>
       <c r="M41">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="N41">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O41">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P41">
-        <v>16.33785162852366</v>
+        <v>9.611430856451262</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,49 +2438,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>1.138690784542927</v>
+        <v>0.6698829192086111</v>
       </c>
       <c r="C42">
-        <v>7.632175880243918</v>
+        <v>4.489949622823707</v>
       </c>
       <c r="D42">
-        <v>0.006510433242749623</v>
+        <v>0.003830037166513567</v>
       </c>
       <c r="E42">
-        <v>0.6192581606821218</v>
+        <v>0.3643047524864346</v>
       </c>
       <c r="F42">
-        <v>1.170216965607758</v>
+        <v>0.6884295259695373</v>
       </c>
       <c r="G42">
-        <v>1.9011236821955</v>
+        <v>1.118416254257246</v>
       </c>
       <c r="H42">
-        <v>0.6936299928379733</v>
+        <v>0.4080571220565918</v>
       </c>
       <c r="I42">
-        <v>5.140918701869327</v>
+        <v>3.024362429353218</v>
       </c>
       <c r="J42">
-        <v>1.302774241816688</v>
+        <v>0.7664119390658407</v>
       </c>
       <c r="K42">
-        <v>1.725434095847762</v>
+        <v>1.015059439066704</v>
       </c>
       <c r="L42">
-        <v>9.876770557297489</v>
+        <v>5.810427188037614</v>
       </c>
       <c r="M42">
-        <v>6.214984444850233</v>
+        <v>3.656226939979624</v>
       </c>
       <c r="N42">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O42">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P42">
-        <v>37.93679568236574</v>
+        <v>22.31792140771975</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2488,49 +2488,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>2.24604145574981</v>
+        <v>1.321328693851848</v>
       </c>
       <c r="C43">
-        <v>15.05429187387561</v>
+        <v>8.856322650523826</v>
       </c>
       <c r="D43">
-        <v>0.006917335320421476</v>
+        <v>0.004069414489420665</v>
       </c>
       <c r="E43">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="F43">
-        <v>1.326245894355459</v>
+        <v>0.7802201294321423</v>
       </c>
       <c r="G43">
-        <v>2.154606839821567</v>
+        <v>1.267538421491545</v>
       </c>
       <c r="H43">
-        <v>1.213852487466454</v>
+        <v>0.714099963599036</v>
       </c>
       <c r="I43">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="J43">
-        <v>2.233327271685751</v>
+        <v>1.313849038398584</v>
       </c>
       <c r="K43">
-        <v>2.957887021453306</v>
+        <v>1.740101895542922</v>
       </c>
       <c r="L43">
-        <v>12.34596319662186</v>
+        <v>7.263033985047017</v>
       </c>
       <c r="M43">
-        <v>7.768730556062793</v>
+        <v>4.570283674974529</v>
       </c>
       <c r="N43">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O43">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P43">
-        <v>57.47674119774039</v>
+        <v>33.81311915648395</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2538,49 +2538,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>3.664703919428063</v>
+        <v>2.155916771177805</v>
       </c>
       <c r="C44">
-        <v>24.56300274118869</v>
+        <v>14.45022318978492</v>
       </c>
       <c r="D44">
-        <v>0.005696629087405921</v>
+        <v>0.00335128252069937</v>
       </c>
       <c r="E44">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="F44">
-        <v>2.96454964620632</v>
+        <v>1.744021465789493</v>
       </c>
       <c r="G44">
-        <v>4.816179994895266</v>
+        <v>2.83332117745169</v>
       </c>
       <c r="H44">
-        <v>1.508645234422592</v>
+        <v>0.8875242404730878</v>
       </c>
       <c r="I44">
-        <v>11.18149817656579</v>
+        <v>6.577988283843251</v>
       </c>
       <c r="J44">
-        <v>2.977769695581002</v>
+        <v>1.751798717864778</v>
       </c>
       <c r="K44">
-        <v>3.943849361937741</v>
+        <v>2.320135860723896</v>
       </c>
       <c r="L44">
-        <v>20.20248523083578</v>
+        <v>11.88496470280421</v>
       </c>
       <c r="M44">
-        <v>12.71246818264821</v>
+        <v>7.478646013594684</v>
       </c>
       <c r="N44">
-        <v>0.1994964543818309</v>
+        <v>0.1173622102217254</v>
       </c>
       <c r="O44">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="P44">
-        <v>90.11131518605629</v>
+        <v>53.01178484095037</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2588,49 +2588,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>4.274791459036383</v>
+        <v>2.514826518717097</v>
       </c>
       <c r="C45">
-        <v>28.65216853390652</v>
+        <v>16.85584757485745</v>
       </c>
       <c r="D45">
-        <v>0.008544943631108885</v>
+        <v>0.005026923781049057</v>
       </c>
       <c r="E45">
-        <v>0.812776335895285</v>
+        <v>0.4781499876384451</v>
       </c>
       <c r="F45">
-        <v>3.354621968075572</v>
+        <v>1.973497974446006</v>
       </c>
       <c r="G45">
-        <v>5.449887888960432</v>
+        <v>3.206126595537439</v>
       </c>
       <c r="H45">
-        <v>1.3005562365712</v>
+        <v>0.7651071038561097</v>
       </c>
       <c r="I45">
-        <v>9.639222566004992</v>
+        <v>5.670679555037285</v>
       </c>
       <c r="J45">
-        <v>2.977769695581002</v>
+        <v>1.751798717864778</v>
       </c>
       <c r="K45">
-        <v>3.943849361937741</v>
+        <v>2.320135860723896</v>
       </c>
       <c r="L45">
-        <v>23.56956610264174</v>
+        <v>13.86579215327158</v>
       </c>
       <c r="M45">
-        <v>14.83121287975624</v>
+        <v>8.725087015860467</v>
       </c>
       <c r="N45">
-        <v>0.3823682042318426</v>
+        <v>0.224944236258307</v>
       </c>
       <c r="O45">
-        <v>1.589144804204746</v>
+        <v>0.9348815103594442</v>
       </c>
       <c r="P45">
-        <v>100.7864809804348</v>
+        <v>59.29190172820935</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2638,49 +2638,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>3.597845010977837</v>
+        <v>2.116584196105006</v>
       </c>
       <c r="C46">
-        <v>24.11487498308262</v>
+        <v>14.18659312018794</v>
       </c>
       <c r="D46">
-        <v>0.01180016025248369</v>
+        <v>0.006941942364305839</v>
       </c>
       <c r="E46">
-        <v>1.122405416236346</v>
+        <v>0.6603023638816625</v>
       </c>
       <c r="F46">
-        <v>4.212781076187928</v>
+        <v>2.478346293490334</v>
       </c>
       <c r="G46">
-        <v>6.844045255903801</v>
+        <v>4.026298515326086</v>
       </c>
       <c r="H46">
-        <v>1.161830238003606</v>
+        <v>0.6834956794447916</v>
       </c>
       <c r="I46">
-        <v>8.611038825631125</v>
+        <v>5.06580706916664</v>
       </c>
       <c r="J46">
-        <v>5.689667096913699</v>
+        <v>3.347186835920203</v>
       </c>
       <c r="K46">
-        <v>7.535569316559611</v>
+        <v>4.433116733883158</v>
       </c>
       <c r="L46">
-        <v>45.5678277984407</v>
+        <v>26.80719816299171</v>
       </c>
       <c r="M46">
-        <v>28.6736782341954</v>
+        <v>16.8685015639969</v>
       </c>
       <c r="N46">
-        <v>0.2992446815727465</v>
+        <v>0.1760433153325881</v>
       </c>
       <c r="O46">
-        <v>1.243678542421105</v>
+        <v>0.7316463994117391</v>
       </c>
       <c r="P46">
-        <v>138.686286636379</v>
+        <v>81.58806219150307</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2688,49 +2688,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>2.465422249102116</v>
+        <v>1.450388705809469</v>
       </c>
       <c r="C47">
-        <v>16.52471108016114</v>
+        <v>9.721358816388939</v>
       </c>
       <c r="D47">
-        <v>0.01464847479618666</v>
+        <v>0.008617583624655523</v>
       </c>
       <c r="E47">
-        <v>1.393330861534774</v>
+        <v>0.8196856930944776</v>
       </c>
       <c r="F47">
-        <v>2.418448395589366</v>
+        <v>1.422754353670378</v>
       </c>
       <c r="G47">
-        <v>3.928988943204032</v>
+        <v>2.311393592131642</v>
       </c>
       <c r="H47">
-        <v>1.023104239436011</v>
+        <v>0.601884255033473</v>
       </c>
       <c r="I47">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="J47">
-        <v>6.965854109305558</v>
+        <v>4.097957715005106</v>
       </c>
       <c r="K47">
-        <v>9.225790471675788</v>
+        <v>5.427460674193399</v>
       </c>
       <c r="L47">
-        <v>32.09950431121685</v>
+        <v>18.88388836112225</v>
       </c>
       <c r="M47">
-        <v>20.19869944576325</v>
+        <v>11.88273755493378</v>
       </c>
       <c r="N47">
-        <v>0.2826199770409272</v>
+        <v>0.1662631311474443</v>
       </c>
       <c r="O47">
-        <v>1.174585290064378</v>
+        <v>0.6909993772221978</v>
       </c>
       <c r="P47">
-        <v>105.2985629341476</v>
+        <v>61.94632439667321</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2738,49 +2738,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>2.70360711045605</v>
+        <v>1.590511004506317</v>
       </c>
       <c r="C48">
-        <v>18.12116621841399</v>
+        <v>10.66054093932821</v>
       </c>
       <c r="D48">
-        <v>0.01668298518454591</v>
+        <v>0.009814470239191018</v>
       </c>
       <c r="E48">
-        <v>1.586849036747937</v>
+        <v>0.9335309282464883</v>
       </c>
       <c r="F48">
-        <v>5.851084828038791</v>
+        <v>3.442147629847686</v>
       </c>
       <c r="G48">
-        <v>9.505618410977501</v>
+        <v>5.59208127128623</v>
       </c>
       <c r="H48">
-        <v>1.092467238719808</v>
+        <v>0.6426899672391325</v>
       </c>
       <c r="I48">
-        <v>8.09694695544419</v>
+        <v>4.76337082623132</v>
       </c>
       <c r="J48">
-        <v>6.726569044482086</v>
+        <v>3.957188175176688</v>
       </c>
       <c r="K48">
-        <v>8.908874005091505</v>
+        <v>5.24102118538523</v>
       </c>
       <c r="L48">
-        <v>41.97627486851433</v>
+        <v>24.69431554915986</v>
       </c>
       <c r="M48">
-        <v>26.41368389061351</v>
+        <v>15.5389644949134</v>
       </c>
       <c r="N48">
-        <v>0.3989929087636619</v>
+        <v>0.2347244204434508</v>
       </c>
       <c r="O48">
-        <v>1.658238056561474</v>
+        <v>0.9755285325489854</v>
       </c>
       <c r="P48">
-        <v>133.0570555580094</v>
+        <v>78.27642939455221</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2788,49 +2788,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>2.275292228196784</v>
+        <v>1.338536695446197</v>
       </c>
       <c r="C49">
-        <v>15.25034776804702</v>
+        <v>8.971660805972512</v>
       </c>
       <c r="D49">
-        <v>0.01383467064084295</v>
+        <v>0.00813882897884133</v>
       </c>
       <c r="E49">
-        <v>1.315923591449509</v>
+        <v>0.7741475990336733</v>
       </c>
       <c r="F49">
-        <v>3.822708754318674</v>
+        <v>2.248869784833822</v>
       </c>
       <c r="G49">
-        <v>6.210337361838633</v>
+        <v>3.653493097240338</v>
       </c>
       <c r="H49">
-        <v>1.161830238003606</v>
+        <v>0.6834956794447916</v>
       </c>
       <c r="I49">
-        <v>8.611038825631125</v>
+        <v>5.06580706916664</v>
       </c>
       <c r="J49">
-        <v>4.546416231645995</v>
+        <v>2.674621256739976</v>
       </c>
       <c r="K49">
-        <v>6.021412865101372</v>
+        <v>3.542350287355234</v>
       </c>
       <c r="L49">
-        <v>54.54671012325661</v>
+        <v>32.08940469757137</v>
       </c>
       <c r="M49">
-        <v>34.32366409315015</v>
+        <v>20.19234423670565</v>
       </c>
       <c r="N49">
-        <v>0.1994964543818309</v>
+        <v>0.1173622102217254</v>
       </c>
       <c r="O49">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="P49">
-        <v>139.1281322339429</v>
+        <v>81.84799651498527</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM25.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.502012710592518</v>
+        <v>2.553174566443041</v>
       </c>
       <c r="C2">
-        <v>10.06737328273499</v>
+        <v>17.11287876267535</v>
       </c>
       <c r="D2">
-        <v>0.004787546458141959</v>
+        <v>0.008138041553437031</v>
       </c>
       <c r="E2">
-        <v>0.4553809406080431</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="F2">
-        <v>1.560440258864285</v>
+        <v>2.652491788710918</v>
       </c>
       <c r="G2">
-        <v>2.535076842983091</v>
+        <v>4.309213679643134</v>
       </c>
       <c r="H2">
-        <v>0.5508771147763991</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I2">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J2">
-        <v>2.346158997140328</v>
+        <v>3.988084413724555</v>
       </c>
       <c r="K2">
-        <v>3.107324813469504</v>
+        <v>5.281941109738045</v>
       </c>
       <c r="L2">
-        <v>26.41103267289824</v>
+        <v>44.89441162407948</v>
       </c>
       <c r="M2">
-        <v>16.61921336354374</v>
+        <v>28.24992929477379</v>
       </c>
       <c r="N2">
-        <v>0.08802165766629404</v>
+        <v>0.1496223407863732</v>
       </c>
       <c r="O2">
-        <v>0.3658231997058696</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="P2">
-        <v>69.6964126810683</v>
+        <v>118.4724383320462</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.502012710592518</v>
+        <v>2.553174566443041</v>
       </c>
       <c r="C3">
-        <v>10.06737328273499</v>
+        <v>17.11287876267535</v>
       </c>
       <c r="D3">
-        <v>0.007181319687212938</v>
+        <v>0.01220706233015555</v>
       </c>
       <c r="E3">
-        <v>0.6830714109120647</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="F3">
-        <v>1.881707370983402</v>
+        <v>3.198593039327871</v>
       </c>
       <c r="G3">
-        <v>3.05700442830314</v>
+        <v>5.196404731334367</v>
       </c>
       <c r="H3">
-        <v>0.5406756867249843</v>
+        <v>0.9190597405103148</v>
       </c>
       <c r="I3">
-        <v>4.007280218893014</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="J3">
-        <v>2.784108676606523</v>
+        <v>4.732526837619807</v>
       </c>
       <c r="K3">
-        <v>3.687358778650478</v>
+        <v>6.267903450222481</v>
       </c>
       <c r="L3">
-        <v>25.22253620261782</v>
+        <v>42.87416310099591</v>
       </c>
       <c r="M3">
-        <v>15.87134876218427</v>
+        <v>26.97868247650897</v>
       </c>
       <c r="N3">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O3">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P3">
-        <v>69.61422208713853</v>
+        <v>118.3327278405554</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.778569879073139</v>
+        <v>3.023276266483697</v>
       </c>
       <c r="C4">
-        <v>11.92102220958881</v>
+        <v>20.26377706185861</v>
       </c>
       <c r="D4">
-        <v>0.005984433072677448</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E4">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="F4">
-        <v>2.111183879639914</v>
+        <v>3.588665361197124</v>
       </c>
       <c r="G4">
-        <v>3.429809846388888</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="H4">
-        <v>0.6222871111363028</v>
+        <v>1.05778573907791</v>
       </c>
       <c r="I4">
-        <v>4.612152704763658</v>
+        <v>7.839901020350728</v>
       </c>
       <c r="J4">
-        <v>3.128211996187106</v>
+        <v>5.317445884966075</v>
       </c>
       <c r="K4">
-        <v>4.143099751292671</v>
+        <v>7.042588146317396</v>
       </c>
       <c r="L4">
-        <v>15.31839895028099</v>
+        <v>26.03875874196612</v>
       </c>
       <c r="M4">
-        <v>9.639143750855373</v>
+        <v>16.3849589909688</v>
       </c>
       <c r="N4">
-        <v>0.1760433153325881</v>
+        <v>0.2992446815727465</v>
       </c>
       <c r="O4">
-        <v>0.7316463994117391</v>
+        <v>1.243678542421105</v>
       </c>
       <c r="P4">
-        <v>58.1867804027839</v>
+        <v>98.90795649058745</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>2.036689902988383</v>
+        <v>3.462037853188311</v>
       </c>
       <c r="C5">
-        <v>13.65109454131906</v>
+        <v>23.20461547442968</v>
       </c>
       <c r="D5">
-        <v>0.003830037166513567</v>
+        <v>0.006510433242749623</v>
       </c>
       <c r="E5">
-        <v>0.3643047524864346</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="F5">
-        <v>2.157079181371216</v>
+        <v>3.666679825570973</v>
       </c>
       <c r="G5">
-        <v>3.504370930006038</v>
+        <v>5.956854204212568</v>
       </c>
       <c r="H5">
-        <v>0.6732942513933768</v>
+        <v>1.144489488182656</v>
       </c>
       <c r="I5">
-        <v>4.99019800843281</v>
+        <v>8.482515858084389</v>
       </c>
       <c r="J5">
-        <v>2.26795369723565</v>
+        <v>3.855148266600403</v>
       </c>
       <c r="K5">
-        <v>3.003747319687186</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="L5">
-        <v>10.5644130691593</v>
+        <v>17.95776464963181</v>
       </c>
       <c r="M5">
-        <v>6.6476853454175</v>
+        <v>11.29997171790952</v>
       </c>
       <c r="N5">
-        <v>0.07824147348115029</v>
+        <v>0.132997636254554</v>
       </c>
       <c r="O5">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="P5">
-        <v>50.26807868766094</v>
+        <v>85.44746599292367</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.454598513136872</v>
+        <v>4.172413755471969</v>
       </c>
       <c r="C6">
-        <v>16.45216403078705</v>
+        <v>27.9659729043066</v>
       </c>
       <c r="D6">
-        <v>0.008378206301748429</v>
+        <v>0.0142415727185148</v>
       </c>
       <c r="E6">
-        <v>0.7969166460640756</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="F6">
-        <v>2.157079181371216</v>
+        <v>3.666679825570973</v>
       </c>
       <c r="G6">
-        <v>3.504370930006038</v>
+        <v>5.956854204212568</v>
       </c>
       <c r="H6">
-        <v>0.5814813989306437</v>
+        <v>0.9884227397941123</v>
       </c>
       <c r="I6">
-        <v>4.309716461828336</v>
+        <v>7.325809150163791</v>
       </c>
       <c r="J6">
-        <v>1.704875537921973</v>
+        <v>2.89800800730651</v>
       </c>
       <c r="K6">
-        <v>2.257989364454506</v>
+        <v>3.83821053974298</v>
       </c>
       <c r="L6">
-        <v>5.150151371215156</v>
+        <v>8.754410266695501</v>
       </c>
       <c r="M6">
-        <v>3.24074660589103</v>
+        <v>5.508736212480888</v>
       </c>
       <c r="N6">
-        <v>0.2347244204434508</v>
+        <v>0.3989929087636619</v>
       </c>
       <c r="O6">
-        <v>0.9755285325489854</v>
+        <v>1.658238056561474</v>
       </c>
       <c r="P6">
-        <v>43.82872120090109</v>
+        <v>74.50161737028169</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>2.299726498787728</v>
+        <v>3.909156803449204</v>
       </c>
       <c r="C7">
-        <v>15.41412063174891</v>
+        <v>26.20146985676399</v>
       </c>
       <c r="D7">
-        <v>0.004548169135234859</v>
+        <v>0.007731139475765179</v>
       </c>
       <c r="E7">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="F7">
-        <v>1.468649655401679</v>
+        <v>2.496462859963216</v>
       </c>
       <c r="G7">
-        <v>2.385954675748791</v>
+        <v>4.055730522017067</v>
       </c>
       <c r="H7">
-        <v>0.8365171002160134</v>
+        <v>1.421941485317846</v>
       </c>
       <c r="I7">
-        <v>6.199942980174097</v>
+        <v>10.53888333883213</v>
       </c>
       <c r="J7">
-        <v>1.001027838779874</v>
+        <v>1.701582683189144</v>
       </c>
       <c r="K7">
-        <v>1.325791920413655</v>
+        <v>2.253628206821566</v>
       </c>
       <c r="L7">
-        <v>2.641103267289825</v>
+        <v>4.489441162407953</v>
       </c>
       <c r="M7">
-        <v>1.661921336354375</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="N7">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O7">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P7">
-        <v>35.97447920587594</v>
+        <v>61.15069779485656</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.715883587550864</v>
+        <v>2.916719881141151</v>
       </c>
       <c r="C8">
-        <v>11.50086178616862</v>
+        <v>19.54957344737708</v>
       </c>
       <c r="D8">
-        <v>0.003830037166513567</v>
+        <v>0.006510433242749623</v>
       </c>
       <c r="E8">
-        <v>0.3643047524864346</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="F8">
-        <v>1.376859051939075</v>
+        <v>2.340433931215515</v>
       </c>
       <c r="G8">
-        <v>2.236832508514493</v>
+        <v>3.802247364391001</v>
       </c>
       <c r="H8">
-        <v>0.6936971074962064</v>
+        <v>1.179170987824555</v>
       </c>
       <c r="I8">
-        <v>5.14141612990047</v>
+        <v>8.739561793177858</v>
       </c>
       <c r="J8">
-        <v>0.7664119390658407</v>
+        <v>1.302774241816688</v>
       </c>
       <c r="K8">
-        <v>1.015059439066704</v>
+        <v>1.725434095847762</v>
       </c>
       <c r="L8">
-        <v>3.433434247476772</v>
+        <v>5.836273511130335</v>
       </c>
       <c r="M8">
-        <v>2.160497737260687</v>
+        <v>3.672490808320592</v>
       </c>
       <c r="N8">
-        <v>0.04890092092571893</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O8">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P8">
-        <v>30.66122435596611</v>
+        <v>52.11903844061014</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.354515554069521</v>
+        <v>2.302453659754688</v>
       </c>
       <c r="C9">
-        <v>9.078760521746283</v>
+        <v>15.43239966977761</v>
       </c>
       <c r="D9">
-        <v>0.005266301103956155</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E9">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F9">
-        <v>1.009696638088654</v>
+        <v>1.716318216224712</v>
       </c>
       <c r="G9">
-        <v>1.640343839577294</v>
+        <v>2.788314733886733</v>
       </c>
       <c r="H9">
-        <v>0.7345028197018656</v>
+        <v>1.248533987108352</v>
       </c>
       <c r="I9">
-        <v>5.443852372835794</v>
+        <v>9.253653663364789</v>
       </c>
       <c r="J9">
-        <v>0.4848728594090013</v>
+        <v>0.8242041121697412</v>
       </c>
       <c r="K9">
-        <v>0.6421804614503639</v>
+        <v>1.091601162679196</v>
       </c>
       <c r="L9">
-        <v>2.641103267289825</v>
+        <v>4.489441162407953</v>
       </c>
       <c r="M9">
-        <v>1.661921336354375</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="N9">
-        <v>0.02934055255543135</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O9">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P9">
-        <v>25.34921662541984</v>
+        <v>43.08949898416349</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.001751521385354</v>
+        <v>1.702812824591716</v>
       </c>
       <c r="C10">
-        <v>6.714328335048294</v>
+        <v>11.41325383926384</v>
       </c>
       <c r="D10">
-        <v>0.003590659843606469</v>
+        <v>0.006103531165077773</v>
       </c>
       <c r="E10">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="F10">
-        <v>0.2753718103878148</v>
+        <v>0.4680867862431032</v>
       </c>
       <c r="G10">
-        <v>0.4473665017028985</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="H10">
-        <v>0.5610785428278139</v>
+        <v>0.9537412401522137</v>
       </c>
       <c r="I10">
-        <v>4.158498340360675</v>
+        <v>7.068763215070326</v>
       </c>
       <c r="J10">
-        <v>0.4692317994280657</v>
+        <v>0.797616882744911</v>
       </c>
       <c r="K10">
-        <v>0.6214649626939006</v>
+        <v>1.056388221947609</v>
       </c>
       <c r="L10">
-        <v>2.509048103925333</v>
+        <v>4.264969104287552</v>
       </c>
       <c r="M10">
-        <v>1.578825269536656</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="N10">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O10">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P10">
-        <v>18.73251875897113</v>
+        <v>31.8422008838761</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.5949051979760877</v>
+        <v>1.011240990309682</v>
       </c>
       <c r="C11">
-        <v>3.98740480265445</v>
+        <v>6.777932341354235</v>
       </c>
       <c r="D11">
-        <v>0.00335128252069937</v>
+        <v>0.005696629087405921</v>
       </c>
       <c r="E11">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="F11">
-        <v>0.5048483190443271</v>
+        <v>0.8581591081123559</v>
       </c>
       <c r="G11">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="H11">
-        <v>0.3264456976452736</v>
+        <v>0.5549039942703787</v>
       </c>
       <c r="I11">
-        <v>2.419489943482575</v>
+        <v>4.112734961495462</v>
       </c>
       <c r="J11">
-        <v>0.4535907394471303</v>
+        <v>0.7710296533200807</v>
       </c>
       <c r="K11">
-        <v>0.6007494639374372</v>
+        <v>1.021175281216022</v>
       </c>
       <c r="L11">
-        <v>2.11288261383186</v>
+        <v>3.59155292992636</v>
       </c>
       <c r="M11">
-        <v>1.3295370690835</v>
+        <v>2.259994343581903</v>
       </c>
       <c r="N11">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O11">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P11">
-        <v>13.57299812058699</v>
+        <v>23.0718644039912</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.3724303202205672</v>
+        <v>0.6330702893880861</v>
       </c>
       <c r="C12">
-        <v>2.496247221496482</v>
+        <v>4.243209709566804</v>
       </c>
       <c r="D12">
-        <v>0.002872527874885176</v>
+        <v>0.004882824932062219</v>
       </c>
       <c r="E12">
-        <v>0.2732285643648258</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="F12">
-        <v>0.09179060346260497</v>
+        <v>0.156028928747701</v>
       </c>
       <c r="G12">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="H12">
-        <v>0.1836257049254664</v>
+        <v>0.3121334967770881</v>
       </c>
       <c r="I12">
-        <v>1.360963093208948</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="J12">
-        <v>0.1720516597902907</v>
+        <v>0.292459523673134</v>
       </c>
       <c r="K12">
-        <v>0.2278704863210969</v>
+        <v>0.3873423480474567</v>
       </c>
       <c r="L12">
-        <v>1.452606797009403</v>
+        <v>2.469192639324372</v>
       </c>
       <c r="M12">
-        <v>0.9140567349949059</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="P12">
-        <v>7.696865880903777</v>
+        <v>13.08340606564812</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.2187874488424454</v>
+        <v>0.3719026782543874</v>
       </c>
       <c r="C13">
-        <v>1.466442262133248</v>
+        <v>2.492710654464986</v>
       </c>
       <c r="D13">
-        <v>0.001436263937442588</v>
+        <v>0.00244141246603111</v>
       </c>
       <c r="E13">
-        <v>0.1366142821824129</v>
+        <v>0.2322218102557957</v>
       </c>
       <c r="F13">
-        <v>0.09179060346260497</v>
+        <v>0.156028928747701</v>
       </c>
       <c r="G13">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="H13">
-        <v>0.0918128524627332</v>
+        <v>0.156066748388544</v>
       </c>
       <c r="I13">
-        <v>0.6804815466044742</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="J13">
-        <v>0.4535907394471303</v>
+        <v>0.7710296533200807</v>
       </c>
       <c r="K13">
-        <v>0.6007494639374372</v>
+        <v>1.021175281216022</v>
       </c>
       <c r="L13">
-        <v>2.11288261383186</v>
+        <v>3.59155292992636</v>
       </c>
       <c r="M13">
-        <v>1.3295370690835</v>
+        <v>2.259994343581903</v>
       </c>
       <c r="P13">
-        <v>7.333247313159587</v>
+        <v>12.46531430616848</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.1327474408706972</v>
+        <v>0.2256488160195159</v>
       </c>
       <c r="C14">
-        <v>0.8897514848898358</v>
+        <v>1.512431183607969</v>
       </c>
       <c r="D14">
-        <v>0.00119688661453549</v>
+        <v>0.002034510388359258</v>
       </c>
       <c r="E14">
-        <v>0.1138452351520108</v>
+        <v>0.1935181752131631</v>
       </c>
       <c r="F14">
-        <v>0.1376859051939074</v>
+        <v>0.2340433931215516</v>
       </c>
       <c r="G14">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="H14">
-        <v>0.0102014280514148</v>
+        <v>0.01734074982094934</v>
       </c>
       <c r="I14">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="J14">
-        <v>0.4692317994280657</v>
+        <v>0.797616882744911</v>
       </c>
       <c r="K14">
-        <v>0.6214649626939006</v>
+        <v>1.056388221947609</v>
       </c>
       <c r="L14">
-        <v>1.716717123738386</v>
+        <v>2.918136755565167</v>
       </c>
       <c r="M14">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="P14">
-        <v>5.472383446848378</v>
+        <v>9.302151796575325</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,49 +1112,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1167685822473725</v>
+        <v>0.1984873844616111</v>
       </c>
       <c r="C15">
-        <v>0.7826517691160593</v>
+        <v>1.33037928187738</v>
       </c>
       <c r="D15">
-        <v>0.002154395906163881</v>
+        <v>0.003662118699046665</v>
       </c>
       <c r="E15">
-        <v>0.2049214232736194</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="F15">
-        <v>0.09179060346260497</v>
+        <v>0.156028928747701</v>
       </c>
       <c r="G15">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="H15">
-        <v>0.0306042841542444</v>
+        <v>0.052022249462848</v>
       </c>
       <c r="I15">
-        <v>0.2268271822014913</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="J15">
-        <v>0.2815390796568394</v>
+        <v>0.4785701296469468</v>
       </c>
       <c r="K15">
-        <v>0.3728789776163404</v>
+        <v>0.6338329331685655</v>
       </c>
       <c r="L15">
-        <v>1.716717123738386</v>
+        <v>2.918136755565167</v>
       </c>
       <c r="M15">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="N15">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O15">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P15">
-        <v>5.106651663612449</v>
+        <v>8.68046791832807</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,43 +1162,43 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1032480095660978</v>
+        <v>0.1755046346818455</v>
       </c>
       <c r="C16">
-        <v>0.6920289326920941</v>
+        <v>1.176335365028421</v>
       </c>
       <c r="D16">
-        <v>0.0007181319687212939</v>
+        <v>0.001220706233015555</v>
       </c>
       <c r="E16">
-        <v>0.06830714109120646</v>
+        <v>0.1161109051278979</v>
       </c>
       <c r="F16">
-        <v>0.09179060346260497</v>
+        <v>0.156028928747701</v>
       </c>
       <c r="G16">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="H16">
-        <v>0.08161142441131841</v>
+        <v>0.1387259985675947</v>
       </c>
       <c r="I16">
-        <v>0.6048724858706437</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="J16">
-        <v>0.2502569596949684</v>
+        <v>0.425395670797286</v>
       </c>
       <c r="K16">
-        <v>0.3314479801034136</v>
+        <v>0.5634070517053915</v>
       </c>
       <c r="L16">
-        <v>1.716717123738386</v>
+        <v>2.918136755565167</v>
       </c>
       <c r="M16">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="P16">
-        <v>5.170369828464098</v>
+        <v>8.788778318614549</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,49 +1206,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.2667240247124194</v>
+        <v>0.4533869729281012</v>
       </c>
       <c r="C17">
-        <v>1.787741409454577</v>
+        <v>3.038866359656754</v>
       </c>
       <c r="D17">
-        <v>0.002154395906163881</v>
+        <v>0.003662118699046665</v>
       </c>
       <c r="E17">
-        <v>0.2049214232736194</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="F17">
-        <v>0.3671624138504199</v>
+        <v>0.624115714990804</v>
       </c>
       <c r="G17">
-        <v>0.5964886689371978</v>
+        <v>1.013932630504267</v>
       </c>
       <c r="H17">
-        <v>0.06120856830848879</v>
+        <v>0.104044498925696</v>
       </c>
       <c r="I17">
-        <v>0.4536543644029825</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="J17">
-        <v>0.6100013392564855</v>
+        <v>1.036901947568385</v>
       </c>
       <c r="K17">
-        <v>0.8079044515020709</v>
+        <v>1.373304688531892</v>
       </c>
       <c r="L17">
-        <v>3.037268757383296</v>
+        <v>5.162857336769143</v>
       </c>
       <c r="M17">
-        <v>1.911209536807531</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="N17">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O17">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P17">
-        <v>10.15686656016994</v>
+        <v>17.26500261502571</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1256,49 +1256,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.6981532075421855</v>
+        <v>1.186745624991528</v>
       </c>
       <c r="C18">
-        <v>4.679433735346541</v>
+        <v>7.954267706382653</v>
       </c>
       <c r="D18">
-        <v>0.001675641260349685</v>
+        <v>0.00284831454370296</v>
       </c>
       <c r="E18">
-        <v>0.1593833292128151</v>
+        <v>0.2709254452984283</v>
       </c>
       <c r="F18">
-        <v>0.8261154311634445</v>
+        <v>1.40426035872931</v>
       </c>
       <c r="G18">
-        <v>1.342099505108695</v>
+        <v>2.2813484186346</v>
       </c>
       <c r="H18">
-        <v>0.3672514098509328</v>
+        <v>0.6242669935541761</v>
       </c>
       <c r="I18">
-        <v>2.721926186417897</v>
+        <v>4.626826831682394</v>
       </c>
       <c r="J18">
-        <v>0.719488759123034</v>
+        <v>1.223012553542197</v>
       </c>
       <c r="K18">
-        <v>0.9529129427973143</v>
+        <v>1.619795273653001</v>
       </c>
       <c r="L18">
-        <v>6.734813331589051</v>
+        <v>11.44807496414028</v>
       </c>
       <c r="M18">
-        <v>4.237899407703655</v>
+        <v>7.203731970167315</v>
       </c>
       <c r="N18">
-        <v>0.03912073674057515</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O18">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P18">
-        <v>23.64286171261465</v>
+        <v>40.18897628287377</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.343453267330297</v>
+        <v>2.283649591753063</v>
       </c>
       <c r="C19">
-        <v>9.004614564672133</v>
+        <v>15.30636373781029</v>
       </c>
       <c r="D19">
-        <v>0.004069414489420665</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E19">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F19">
-        <v>1.193277845013865</v>
+        <v>2.028376073720113</v>
       </c>
       <c r="G19">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H19">
-        <v>0.7243013916504506</v>
+        <v>1.231193237287403</v>
       </c>
       <c r="I19">
-        <v>5.368243312101962</v>
+        <v>9.12513069581806</v>
       </c>
       <c r="J19">
-        <v>1.376413278322326</v>
+        <v>2.339676189385072</v>
       </c>
       <c r="K19">
-        <v>1.822963890568775</v>
+        <v>3.098738784379654</v>
       </c>
       <c r="L19">
-        <v>9.507971762243361</v>
+        <v>16.16198818466862</v>
       </c>
       <c r="M19">
-        <v>5.982916810875747</v>
+        <v>10.16997454611857</v>
       </c>
       <c r="N19">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O19">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P19">
-        <v>38.95645074907918</v>
+        <v>66.21955896245615</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>2.312017928497977</v>
+        <v>3.930050212339899</v>
       </c>
       <c r="C20">
-        <v>15.49650502849796</v>
+        <v>26.34150978117214</v>
       </c>
       <c r="D20">
-        <v>0.004548169135234859</v>
+        <v>0.007731139475765179</v>
       </c>
       <c r="E20">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="F20">
-        <v>1.606335560595586</v>
+        <v>2.730506253084768</v>
       </c>
       <c r="G20">
-        <v>2.609637926600241</v>
+        <v>4.435955258456166</v>
       </c>
       <c r="H20">
-        <v>0.8773228124216725</v>
+        <v>1.491304484601643</v>
       </c>
       <c r="I20">
-        <v>6.502379223109418</v>
+        <v>11.05297520901906</v>
       </c>
       <c r="J20">
-        <v>1.704875537921973</v>
+        <v>2.89800800730651</v>
       </c>
       <c r="K20">
-        <v>2.257989364454506</v>
+        <v>3.83821053974298</v>
       </c>
       <c r="L20">
-        <v>13.33757149981362</v>
+        <v>22.67167787016015</v>
       </c>
       <c r="M20">
-        <v>8.392702748589592</v>
+        <v>14.26621429386077</v>
       </c>
       <c r="N20">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O20">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P20">
-        <v>55.83706093146353</v>
+        <v>94.91381985636113</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>2.588575096978594</v>
+        <v>4.400151912380558</v>
       </c>
       <c r="C21">
-        <v>17.3501539553518</v>
+        <v>29.49240808035541</v>
       </c>
       <c r="D21">
-        <v>0.005026923781049057</v>
+        <v>0.008544943631108885</v>
       </c>
       <c r="E21">
-        <v>0.4781499876384451</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="F21">
-        <v>2.111183879639914</v>
+        <v>3.588665361197124</v>
       </c>
       <c r="G21">
-        <v>3.429809846388888</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="H21">
-        <v>0.7447042477532799</v>
+        <v>1.265874736929302</v>
       </c>
       <c r="I21">
-        <v>5.519461433569623</v>
+        <v>9.382176630911527</v>
       </c>
       <c r="J21">
-        <v>1.939491437636005</v>
+        <v>3.296816448678965</v>
       </c>
       <c r="K21">
-        <v>2.568721845801456</v>
+        <v>4.366404650716784</v>
       </c>
       <c r="L21">
-        <v>15.97867476710344</v>
+        <v>27.1611190325681</v>
       </c>
       <c r="M21">
-        <v>10.05462408494397</v>
+        <v>17.09120722333815</v>
       </c>
       <c r="N21">
-        <v>0.4009875515908952</v>
+        <v>0.6816128858045889</v>
       </c>
       <c r="O21">
-        <v>1.666527909771183</v>
+        <v>2.832823346625852</v>
       </c>
       <c r="P21">
-        <v>64.83609296794853</v>
+        <v>110.2106942144323</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.808069310377737</v>
+        <v>3.073420447821368</v>
       </c>
       <c r="C22">
-        <v>12.11874476178656</v>
+        <v>20.59987288043817</v>
       </c>
       <c r="D22">
-        <v>0.007899451655934229</v>
+        <v>0.0134277685631711</v>
       </c>
       <c r="E22">
-        <v>0.7513785520032713</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="F22">
-        <v>2.111183879639914</v>
+        <v>3.588665361197124</v>
       </c>
       <c r="G22">
-        <v>3.429809846388888</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="H22">
-        <v>0.6732942513933768</v>
+        <v>1.144489488182656</v>
       </c>
       <c r="I22">
-        <v>4.99019800843281</v>
+        <v>8.482515858084389</v>
       </c>
       <c r="J22">
-        <v>2.65898019675904</v>
+        <v>4.519829002221162</v>
       </c>
       <c r="K22">
-        <v>3.52163478859877</v>
+        <v>5.986199924369786</v>
       </c>
       <c r="L22">
-        <v>28.52391528673012</v>
+        <v>48.48596455400587</v>
       </c>
       <c r="M22">
-        <v>17.94875043262725</v>
+        <v>30.50992363835568</v>
       </c>
       <c r="N22">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O22">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P22">
-        <v>78.84642200464179</v>
+        <v>134.0259492463771</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.272162975010849</v>
+        <v>2.162467820187024</v>
       </c>
       <c r="C23">
-        <v>8.526785063527587</v>
+        <v>14.49413217624304</v>
       </c>
       <c r="D23">
-        <v>0.005745055749770351</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E23">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F23">
-        <v>1.698126164058192</v>
+        <v>2.886535181832468</v>
       </c>
       <c r="G23">
-        <v>2.75876009383454</v>
+        <v>4.689438416082234</v>
       </c>
       <c r="H23">
-        <v>0.5508771147763991</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I23">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J23">
-        <v>3.362827895901138</v>
+        <v>5.71625432633853</v>
       </c>
       <c r="K23">
-        <v>4.453832232639621</v>
+        <v>7.570782257291199</v>
       </c>
       <c r="L23">
-        <v>26.14692234616927</v>
+        <v>44.44546750783871</v>
       </c>
       <c r="M23">
-        <v>16.45302122990831</v>
+        <v>27.96743000182605</v>
       </c>
       <c r="N23">
-        <v>0.1173622102217254</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O23">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P23">
-        <v>70.46353305642839</v>
+        <v>119.776416799044</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.43318070421512</v>
+        <v>2.436171476655143</v>
       </c>
       <c r="C24">
-        <v>9.606020660940258</v>
+        <v>16.32865518598974</v>
       </c>
       <c r="D24">
-        <v>0.008856960947562623</v>
+        <v>0.01505537687385851</v>
       </c>
       <c r="E24">
-        <v>0.8424547401248796</v>
+        <v>1.432034496577407</v>
       </c>
       <c r="F24">
-        <v>1.376859051939075</v>
+        <v>2.340433931215515</v>
       </c>
       <c r="G24">
-        <v>2.236832508514493</v>
+        <v>3.802247364391001</v>
       </c>
       <c r="H24">
-        <v>0.5202728306221547</v>
+        <v>0.8843782408684161</v>
       </c>
       <c r="I24">
-        <v>3.856062097425353</v>
+        <v>6.554671344883392</v>
       </c>
       <c r="J24">
-        <v>3.11257093620617</v>
+        <v>5.290858655541244</v>
       </c>
       <c r="K24">
-        <v>4.122384252536206</v>
+        <v>7.007375205585808</v>
       </c>
       <c r="L24">
-        <v>32.74968051439382</v>
+        <v>55.66907041385858</v>
       </c>
       <c r="M24">
-        <v>20.60782457079425</v>
+        <v>35.0299123255195</v>
       </c>
       <c r="N24">
-        <v>0.2542847888137384</v>
+        <v>0.4322423178273003</v>
       </c>
       <c r="O24">
-        <v>1.056822576928067</v>
+        <v>1.796424561274931</v>
       </c>
       <c r="P24">
-        <v>81.78410719440114</v>
+        <v>139.0195308970618</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.338536695446197</v>
+        <v>2.275292228196784</v>
       </c>
       <c r="C25">
-        <v>8.971660805972512</v>
+        <v>15.25034776804702</v>
       </c>
       <c r="D25">
-        <v>0.00813882897884133</v>
+        <v>0.01383467064084295</v>
       </c>
       <c r="E25">
-        <v>0.7741475990336733</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="F25">
-        <v>2.248869784833822</v>
+        <v>3.822708754318674</v>
       </c>
       <c r="G25">
-        <v>3.653493097240338</v>
+        <v>6.210337361838633</v>
       </c>
       <c r="H25">
-        <v>0.6834956794447916</v>
+        <v>1.161830238003606</v>
       </c>
       <c r="I25">
-        <v>5.06580706916664</v>
+        <v>8.611038825631125</v>
       </c>
       <c r="J25">
-        <v>2.674621256739976</v>
+        <v>4.546416231645995</v>
       </c>
       <c r="K25">
-        <v>3.542350287355234</v>
+        <v>6.021412865101372</v>
       </c>
       <c r="L25">
-        <v>32.08940469757137</v>
+        <v>54.54671012325661</v>
       </c>
       <c r="M25">
-        <v>20.19234423670565</v>
+        <v>34.32366409315015</v>
       </c>
       <c r="N25">
-        <v>0.1173622102217254</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O25">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P25">
-        <v>81.84799651498527</v>
+        <v>139.1281322339429</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.363119554866697</v>
+        <v>2.317079045978176</v>
       </c>
       <c r="C26">
-        <v>9.136429599470624</v>
+        <v>15.53042761686332</v>
       </c>
       <c r="D26">
-        <v>0.005026923781049057</v>
+        <v>0.008544943631108885</v>
       </c>
       <c r="E26">
-        <v>0.4781499876384451</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="F26">
-        <v>1.606335560595586</v>
+        <v>2.730506253084768</v>
       </c>
       <c r="G26">
-        <v>2.609637926600241</v>
+        <v>4.435955258456166</v>
       </c>
       <c r="H26">
-        <v>0.4794671184164956</v>
+        <v>0.8150152415846187</v>
       </c>
       <c r="I26">
-        <v>3.553625854490031</v>
+        <v>6.040579474696461</v>
       </c>
       <c r="J26">
-        <v>2.705903376701845</v>
+        <v>4.599590690495655</v>
       </c>
       <c r="K26">
-        <v>3.58378128486816</v>
+        <v>6.091838746564546</v>
       </c>
       <c r="L26">
-        <v>35.12667345495468</v>
+        <v>59.70956746002573</v>
       </c>
       <c r="M26">
-        <v>22.10355377351318</v>
+        <v>37.57240596204915</v>
       </c>
       <c r="N26">
-        <v>0.1173622102217254</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O26">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P26">
-        <v>83.35683089239326</v>
+        <v>141.6929025119875</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.545032714578392</v>
+        <v>2.626301497560476</v>
       </c>
       <c r="C27">
-        <v>10.35571867135669</v>
+        <v>17.60301849810387</v>
       </c>
       <c r="D27">
-        <v>0.003590659843606469</v>
+        <v>0.006103531165077773</v>
       </c>
       <c r="E27">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="F27">
-        <v>3.166775819459873</v>
+        <v>5.382998041795685</v>
       </c>
       <c r="G27">
-        <v>5.144714769583333</v>
+        <v>8.745168938099299</v>
       </c>
       <c r="H27">
-        <v>0.5304742586735695</v>
+        <v>0.9017189906893653</v>
       </c>
       <c r="I27">
-        <v>3.931671158159183</v>
+        <v>6.683194312430128</v>
       </c>
       <c r="J27">
-        <v>2.705903376701845</v>
+        <v>4.599590690495655</v>
       </c>
       <c r="K27">
-        <v>3.58378128486816</v>
+        <v>6.091838746564546</v>
       </c>
       <c r="L27">
-        <v>22.18526744523452</v>
+        <v>37.71130576422679</v>
       </c>
       <c r="M27">
-        <v>13.96013922537675</v>
+        <v>23.72994060760998</v>
       </c>
       <c r="N27">
-        <v>0.1956036837028757</v>
+        <v>0.3324940906363849</v>
       </c>
       <c r="O27">
-        <v>0.812940443790821</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="P27">
-        <v>68.46314921678564</v>
+        <v>116.3760932821513</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.608948149071691</v>
+        <v>2.734947223792096</v>
       </c>
       <c r="C28">
-        <v>10.78411753445179</v>
+        <v>18.33122610502621</v>
       </c>
       <c r="D28">
-        <v>0.006702565041398741</v>
+        <v>0.01139325817481184</v>
       </c>
       <c r="E28">
-        <v>0.6375333168512606</v>
+        <v>1.083701781193713</v>
       </c>
       <c r="F28">
-        <v>1.560440258864285</v>
+        <v>2.652491788710918</v>
       </c>
       <c r="G28">
-        <v>2.535076842983091</v>
+        <v>4.309213679643134</v>
       </c>
       <c r="H28">
-        <v>0.499869974519325</v>
+        <v>0.8496967412265174</v>
       </c>
       <c r="I28">
-        <v>3.704843975957692</v>
+        <v>6.297625409789927</v>
       </c>
       <c r="J28">
-        <v>2.893596096473072</v>
+        <v>4.918637443593618</v>
       </c>
       <c r="K28">
-        <v>3.83236726994572</v>
+        <v>6.514394035343591</v>
       </c>
       <c r="L28">
-        <v>28.25980496000111</v>
+        <v>48.03702043776506</v>
       </c>
       <c r="M28">
-        <v>17.7825582989918</v>
+        <v>30.22742434540795</v>
       </c>
       <c r="N28">
-        <v>0.1467027627771568</v>
+        <v>0.2493705679772887</v>
       </c>
       <c r="O28">
-        <v>0.6097053328431158</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="P28">
-        <v>74.86226733877253</v>
+        <v>127.2535416029958</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.68761329921729</v>
+        <v>2.868665040692548</v>
       </c>
       <c r="C29">
-        <v>11.31137767364578</v>
+        <v>19.22748162123836</v>
       </c>
       <c r="D29">
-        <v>0.00335128252069937</v>
+        <v>0.005696629087405921</v>
       </c>
       <c r="E29">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="F29">
-        <v>2.38655569002773</v>
+        <v>4.056752147440227</v>
       </c>
       <c r="G29">
-        <v>3.877176348091787</v>
+        <v>6.590562098277735</v>
       </c>
       <c r="H29">
-        <v>0.6834956794447916</v>
+        <v>1.161830238003606</v>
       </c>
       <c r="I29">
-        <v>5.06580706916664</v>
+        <v>8.611038825631125</v>
       </c>
       <c r="J29">
-        <v>2.612057016816233</v>
+        <v>4.440067313946671</v>
       </c>
       <c r="K29">
-        <v>3.45948829232938</v>
+        <v>5.880561102175025</v>
       </c>
       <c r="L29">
-        <v>21.26088130168308</v>
+        <v>36.14000135738399</v>
       </c>
       <c r="M29">
-        <v>13.37846675765272</v>
+        <v>22.7411930822929</v>
       </c>
       <c r="N29">
-        <v>0.1467027627771568</v>
+        <v>0.2493705679772887</v>
       </c>
       <c r="O29">
-        <v>0.6097053328431158</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="P29">
-        <v>66.80144516464203</v>
+        <v>113.5514697000946</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>2.255477351830828</v>
+        <v>3.833940531442698</v>
       </c>
       <c r="C30">
-        <v>15.1175368034523</v>
+        <v>25.69732612889466</v>
       </c>
       <c r="D30">
-        <v>0.005984433072677448</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E30">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="F30">
-        <v>1.881707370983402</v>
+        <v>3.198593039327871</v>
       </c>
       <c r="G30">
-        <v>3.05700442830314</v>
+        <v>5.196404731334367</v>
       </c>
       <c r="H30">
-        <v>0.6528913952905473</v>
+        <v>1.109807988540757</v>
       </c>
       <c r="I30">
-        <v>4.838979886965149</v>
+        <v>8.225469922990925</v>
       </c>
       <c r="J30">
-        <v>1.704875537921973</v>
+        <v>2.89800800730651</v>
       </c>
       <c r="K30">
-        <v>2.257989364454506</v>
+        <v>3.83821053974298</v>
       </c>
       <c r="L30">
-        <v>15.84661960373894</v>
+        <v>26.93664697444771</v>
       </c>
       <c r="M30">
-        <v>9.971528018126246</v>
+        <v>16.94995757686427</v>
       </c>
       <c r="N30">
-        <v>0.1271423944068692</v>
+        <v>0.2161211589136501</v>
       </c>
       <c r="O30">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="P30">
-        <v>58.81537405277066</v>
+        <v>99.97646230845149</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>2.186645345453429</v>
+        <v>3.716937441654802</v>
       </c>
       <c r="C31">
-        <v>14.65618418165757</v>
+        <v>24.91310255220904</v>
       </c>
       <c r="D31">
-        <v>0.008856960947562623</v>
+        <v>0.01505537687385851</v>
       </c>
       <c r="E31">
-        <v>0.8424547401248796</v>
+        <v>1.432034496577407</v>
       </c>
       <c r="F31">
-        <v>1.468649655401679</v>
+        <v>2.496462859963216</v>
       </c>
       <c r="G31">
-        <v>2.385954675748791</v>
+        <v>4.055730522017067</v>
       </c>
       <c r="H31">
-        <v>0.9895385209872357</v>
+        <v>1.682052732632086</v>
       </c>
       <c r="I31">
-        <v>7.334078891181552</v>
+        <v>12.46672785203313</v>
       </c>
       <c r="J31">
-        <v>0.8133351190086474</v>
+        <v>1.382535930091179</v>
       </c>
       <c r="K31">
-        <v>1.077205935336094</v>
+        <v>1.831072918042523</v>
       </c>
       <c r="L31">
-        <v>8.055364965233965</v>
+        <v>13.69279554534424</v>
       </c>
       <c r="M31">
-        <v>5.068860075880845</v>
+        <v>8.616228434906006</v>
       </c>
       <c r="N31">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O31">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P31">
-        <v>44.98798347971162</v>
+        <v>76.47217257612165</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.871984744871037</v>
+        <v>3.182066174052988</v>
       </c>
       <c r="C32">
-        <v>12.54714362488166</v>
+        <v>21.32808048736053</v>
       </c>
       <c r="D32">
-        <v>0.01077197953081941</v>
+        <v>0.01831059349523332</v>
       </c>
       <c r="E32">
-        <v>1.024607116368097</v>
+        <v>1.741663576918468</v>
       </c>
       <c r="F32">
-        <v>1.055591939819957</v>
+        <v>1.794332680598562</v>
       </c>
       <c r="G32">
-        <v>1.714904923194444</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="H32">
-        <v>0.8671213843702578</v>
+        <v>1.473963734780693</v>
       </c>
       <c r="I32">
-        <v>6.426770162375589</v>
+        <v>10.92445224147232</v>
       </c>
       <c r="J32">
-        <v>0.8446172389705183</v>
+        <v>1.43571038894084</v>
       </c>
       <c r="K32">
-        <v>1.118636932849021</v>
+        <v>1.901498799505696</v>
       </c>
       <c r="L32">
-        <v>6.734813331589051</v>
+        <v>11.44807496414028</v>
       </c>
       <c r="M32">
-        <v>4.237899407703655</v>
+        <v>7.203731970167315</v>
       </c>
       <c r="N32">
-        <v>0.07824147348115029</v>
+        <v>0.132997636254554</v>
       </c>
       <c r="O32">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="P32">
-        <v>38.85828043752159</v>
+        <v>66.05268557924107</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.359432125953621</v>
+        <v>2.310811023310968</v>
       </c>
       <c r="C33">
-        <v>9.111714280445909</v>
+        <v>15.48841563954087</v>
       </c>
       <c r="D33">
-        <v>0.01125073417663361</v>
+        <v>0.01912439765057702</v>
       </c>
       <c r="E33">
-        <v>1.070145210428902</v>
+        <v>1.819070847003732</v>
       </c>
       <c r="F33">
-        <v>1.193277845013865</v>
+        <v>2.028376073720113</v>
       </c>
       <c r="G33">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H33">
-        <v>0.8671213843702578</v>
+        <v>1.473963734780693</v>
       </c>
       <c r="I33">
-        <v>6.426770162375589</v>
+        <v>10.92445224147232</v>
       </c>
       <c r="J33">
-        <v>0.5630781593136788</v>
+        <v>0.9571402592938936</v>
       </c>
       <c r="K33">
-        <v>0.7457579552326807</v>
+        <v>1.267665866337131</v>
       </c>
       <c r="L33">
-        <v>4.22576522766372</v>
+        <v>7.18310585985272</v>
       </c>
       <c r="M33">
-        <v>2.659074138166999</v>
+        <v>4.519988687163806</v>
       </c>
       <c r="N33">
-        <v>0.07824147348115029</v>
+        <v>0.132997636254554</v>
       </c>
       <c r="O33">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="P33">
-        <v>30.57539304818523</v>
+        <v>51.97313933437407</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,43 +2056,43 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.015272094066628</v>
+        <v>1.725795574371481</v>
       </c>
       <c r="C34">
-        <v>6.80495117147226</v>
+        <v>11.5672977561128</v>
       </c>
       <c r="D34">
-        <v>0.008617583624655523</v>
+        <v>0.01464847479618666</v>
       </c>
       <c r="E34">
-        <v>0.8196856930944776</v>
+        <v>1.393330861534774</v>
       </c>
       <c r="F34">
-        <v>0.6884295259695373</v>
+        <v>1.170216965607758</v>
       </c>
       <c r="G34">
-        <v>1.118416254257246</v>
+        <v>1.9011236821955</v>
       </c>
       <c r="H34">
-        <v>0.5712799708792289</v>
+        <v>0.9710819899731628</v>
       </c>
       <c r="I34">
-        <v>4.234107401094507</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="J34">
-        <v>0.3284622595996459</v>
+        <v>0.5583318179214378</v>
       </c>
       <c r="K34">
-        <v>0.4350254738857304</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="L34">
-        <v>4.22576522766372</v>
+        <v>7.18310585985272</v>
       </c>
       <c r="M34">
-        <v>2.659074138166999</v>
+        <v>4.519988687163806</v>
       </c>
       <c r="P34">
-        <v>22.90908679377464</v>
+        <v>38.94167960751001</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.7079863513103847</v>
+        <v>1.203460352104084</v>
       </c>
       <c r="C35">
-        <v>4.745341252745788</v>
+        <v>8.066299645909169</v>
       </c>
       <c r="D35">
-        <v>0.004308791812327762</v>
+        <v>0.00732423739809333</v>
       </c>
       <c r="E35">
-        <v>0.4098428465472388</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="F35">
-        <v>0.4589530173130248</v>
+        <v>0.7801446437385051</v>
       </c>
       <c r="G35">
-        <v>0.7456108361714974</v>
+        <v>1.267415788130333</v>
       </c>
       <c r="H35">
-        <v>0.4692656903650807</v>
+        <v>0.7976744917636694</v>
       </c>
       <c r="I35">
-        <v>3.478016793756201</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="J35">
-        <v>0.3441033195805815</v>
+        <v>0.5849190473462681</v>
       </c>
       <c r="K35">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="L35">
-        <v>2.509048103925333</v>
+        <v>4.264969104287552</v>
       </c>
       <c r="M35">
-        <v>1.578825269536656</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="N35">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O35">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P35">
-        <v>16.00789765845568</v>
+        <v>27.2107931414703</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.4043880374672165</v>
+        <v>0.6873931525038957</v>
       </c>
       <c r="C36">
-        <v>2.710446653044034</v>
+        <v>4.607313513027979</v>
       </c>
       <c r="D36">
-        <v>0.00933571559337682</v>
+        <v>0.01586918102920221</v>
       </c>
       <c r="E36">
-        <v>0.8879928341856842</v>
+        <v>1.509441766662672</v>
       </c>
       <c r="F36">
-        <v>0.04589530173130248</v>
+        <v>0.0780144643738505</v>
       </c>
       <c r="G36">
-        <v>0.07456108361714972</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="H36">
-        <v>0.2244314171311255</v>
+        <v>0.3814964960608854</v>
       </c>
       <c r="I36">
-        <v>1.66339933614427</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="J36">
-        <v>1.016668898760809</v>
+        <v>1.728169912613974</v>
       </c>
       <c r="K36">
-        <v>1.346507419170118</v>
+        <v>2.288841147553153</v>
       </c>
       <c r="L36">
-        <v>3.565489410841264</v>
+        <v>6.060745569250733</v>
       </c>
       <c r="M36">
-        <v>2.243593804078406</v>
+        <v>3.81374045479446</v>
       </c>
       <c r="N36">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O36">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P36">
-        <v>14.24313711813944</v>
+        <v>24.21099047960052</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.2138708769583454</v>
+        <v>0.3635453146981087</v>
       </c>
       <c r="C37">
-        <v>1.433488503433624</v>
+        <v>2.436694684701728</v>
       </c>
       <c r="D37">
-        <v>0.004787546458141959</v>
+        <v>0.008138041553437031</v>
       </c>
       <c r="E37">
-        <v>0.4553809406080431</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="F37">
-        <v>0.04589530173130248</v>
+        <v>0.0780144643738505</v>
       </c>
       <c r="G37">
-        <v>0.07456108361714972</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="H37">
-        <v>0.08161142441131841</v>
+        <v>0.1387259985675947</v>
       </c>
       <c r="I37">
-        <v>0.6048724858706437</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="J37">
-        <v>0.6412834592183561</v>
+        <v>1.090076406418045</v>
       </c>
       <c r="K37">
-        <v>0.8493354490149976</v>
+        <v>1.443730569995066</v>
       </c>
       <c r="L37">
-        <v>2.773158430654314</v>
+        <v>4.713913220528348</v>
       </c>
       <c r="M37">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="N37">
-        <v>0.02934055255543135</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O37">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P37">
-        <v>9.074544524272385</v>
+        <v>15.42523316749262</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,43 +2250,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.1536428713781217</v>
+        <v>0.2611676111336988</v>
       </c>
       <c r="C38">
-        <v>1.029804959363235</v>
+        <v>1.750499055101816</v>
       </c>
       <c r="D38">
-        <v>0.00119688661453549</v>
+        <v>0.002034510388359258</v>
       </c>
       <c r="E38">
-        <v>0.1138452351520108</v>
+        <v>0.1935181752131631</v>
       </c>
       <c r="F38">
-        <v>0.09179060346260497</v>
+        <v>0.156028928747701</v>
       </c>
       <c r="G38">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="J38">
-        <v>0.4066675595043237</v>
+        <v>0.6912679650455897</v>
       </c>
       <c r="K38">
-        <v>0.5386029676680472</v>
+        <v>0.9155364590212615</v>
       </c>
       <c r="L38">
-        <v>2.641103267289825</v>
+        <v>4.489441162407953</v>
       </c>
       <c r="M38">
-        <v>1.661921336354375</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="N38">
-        <v>0.04890092092571893</v>
+        <v>0.08312352265909623</v>
       </c>
       <c r="O38">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="P38">
-        <v>7.039833885894803</v>
+        <v>11.96655973860573</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2294,43 +2294,43 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1118520103632727</v>
+        <v>0.1901300209053327</v>
       </c>
       <c r="C39">
-        <v>0.7496980104164357</v>
+        <v>1.274363312114123</v>
       </c>
       <c r="D39">
-        <v>0.001675641260349685</v>
+        <v>0.00284831454370296</v>
       </c>
       <c r="E39">
-        <v>0.1593833292128151</v>
+        <v>0.2709254452984283</v>
       </c>
       <c r="F39">
-        <v>0.2294765086565124</v>
+        <v>0.3900723218692526</v>
       </c>
       <c r="G39">
-        <v>0.3728054180857487</v>
+        <v>0.6337078940651664</v>
       </c>
       <c r="J39">
-        <v>0.1876927197712263</v>
+        <v>0.3190467530979644</v>
       </c>
       <c r="K39">
-        <v>0.2485859850775602</v>
+        <v>0.4225552887790437</v>
       </c>
       <c r="L39">
-        <v>2.37699294056084</v>
+        <v>4.040497046167155</v>
       </c>
       <c r="M39">
-        <v>1.495729202718937</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="N39">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O39">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P39">
-        <v>5.984318972498382</v>
+        <v>10.17235799025836</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2338,49 +2338,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1130811533342977</v>
+        <v>0.1922193617944023</v>
       </c>
       <c r="C40">
-        <v>0.7579364500913411</v>
+        <v>1.288367304554936</v>
       </c>
       <c r="D40">
-        <v>0.001436263937442588</v>
+        <v>0.00244141246603111</v>
       </c>
       <c r="E40">
-        <v>0.1366142821824129</v>
+        <v>0.2322218102557957</v>
       </c>
       <c r="F40">
-        <v>0.09179060346260497</v>
+        <v>0.156028928747701</v>
       </c>
       <c r="G40">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="H40">
-        <v>0.0918128524627332</v>
+        <v>0.156066748388544</v>
       </c>
       <c r="I40">
-        <v>0.6804815466044742</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="J40">
-        <v>0.3128211996187105</v>
+        <v>0.5317445884966074</v>
       </c>
       <c r="K40">
-        <v>0.4143099751292671</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="L40">
-        <v>2.11288261383186</v>
+        <v>3.59155292992636</v>
       </c>
       <c r="M40">
-        <v>1.3295370690835</v>
+        <v>2.259994343581903</v>
       </c>
       <c r="N40">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O40">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P40">
-        <v>6.292680589722313</v>
+        <v>10.69652202216778</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2388,49 +2388,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.2888485981908689</v>
+        <v>0.4909951089313538</v>
       </c>
       <c r="C41">
-        <v>1.936033323602883</v>
+        <v>3.290938223591415</v>
       </c>
       <c r="D41">
-        <v>0.001915018583256784</v>
+        <v>0.003255216621374811</v>
       </c>
       <c r="E41">
-        <v>0.1821523762432173</v>
+        <v>0.3096290803410609</v>
       </c>
       <c r="F41">
-        <v>0.1835812069252099</v>
+        <v>0.312057857495402</v>
       </c>
       <c r="G41">
-        <v>0.2982443344685989</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="H41">
-        <v>0.07140999635990361</v>
+        <v>0.1213852487466453</v>
       </c>
       <c r="I41">
-        <v>0.5292634251368133</v>
+        <v>0.8996607728271323</v>
       </c>
       <c r="J41">
-        <v>0.297180139637775</v>
+        <v>0.5051573590717771</v>
       </c>
       <c r="K41">
-        <v>0.3935944763728037</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="L41">
-        <v>3.30137908411228</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M41">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N41">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O41">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P41">
-        <v>9.611430856451262</v>
+        <v>16.33785162852366</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,49 +2438,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.6698829192086111</v>
+        <v>1.138690784542927</v>
       </c>
       <c r="C42">
-        <v>4.489949622823707</v>
+        <v>7.632175880243918</v>
       </c>
       <c r="D42">
-        <v>0.003830037166513567</v>
+        <v>0.006510433242749623</v>
       </c>
       <c r="E42">
-        <v>0.3643047524864346</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="F42">
-        <v>0.6884295259695373</v>
+        <v>1.170216965607758</v>
       </c>
       <c r="G42">
-        <v>1.118416254257246</v>
+        <v>1.9011236821955</v>
       </c>
       <c r="H42">
-        <v>0.4080571220565918</v>
+        <v>0.6936299928379733</v>
       </c>
       <c r="I42">
-        <v>3.024362429353218</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="J42">
-        <v>0.7664119390658407</v>
+        <v>1.302774241816688</v>
       </c>
       <c r="K42">
-        <v>1.015059439066704</v>
+        <v>1.725434095847762</v>
       </c>
       <c r="L42">
-        <v>5.810427188037614</v>
+        <v>9.876770557297489</v>
       </c>
       <c r="M42">
-        <v>3.656226939979624</v>
+        <v>6.214984444850233</v>
       </c>
       <c r="N42">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O42">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P42">
-        <v>22.31792140771975</v>
+        <v>37.93679568236574</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2488,49 +2488,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.321328693851848</v>
+        <v>2.24604145574981</v>
       </c>
       <c r="C43">
-        <v>8.856322650523826</v>
+        <v>15.05429187387561</v>
       </c>
       <c r="D43">
-        <v>0.004069414489420665</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E43">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F43">
-        <v>0.7802201294321423</v>
+        <v>1.326245894355459</v>
       </c>
       <c r="G43">
-        <v>1.267538421491545</v>
+        <v>2.154606839821567</v>
       </c>
       <c r="H43">
-        <v>0.714099963599036</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I43">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J43">
-        <v>1.313849038398584</v>
+        <v>2.233327271685751</v>
       </c>
       <c r="K43">
-        <v>1.740101895542922</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="L43">
-        <v>7.263033985047017</v>
+        <v>12.34596319662186</v>
       </c>
       <c r="M43">
-        <v>4.570283674974529</v>
+        <v>7.768730556062793</v>
       </c>
       <c r="N43">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O43">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P43">
-        <v>33.81311915648395</v>
+        <v>57.47674119774039</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2538,49 +2538,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>2.155916771177805</v>
+        <v>3.664703919428063</v>
       </c>
       <c r="C44">
-        <v>14.45022318978492</v>
+        <v>24.56300274118869</v>
       </c>
       <c r="D44">
-        <v>0.00335128252069937</v>
+        <v>0.005696629087405921</v>
       </c>
       <c r="E44">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="F44">
-        <v>1.744021465789493</v>
+        <v>2.96454964620632</v>
       </c>
       <c r="G44">
-        <v>2.83332117745169</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="H44">
-        <v>0.8875242404730878</v>
+        <v>1.508645234422592</v>
       </c>
       <c r="I44">
-        <v>6.577988283843251</v>
+        <v>11.18149817656579</v>
       </c>
       <c r="J44">
-        <v>1.751798717864778</v>
+        <v>2.977769695581002</v>
       </c>
       <c r="K44">
-        <v>2.320135860723896</v>
+        <v>3.943849361937741</v>
       </c>
       <c r="L44">
-        <v>11.88496470280421</v>
+        <v>20.20248523083578</v>
       </c>
       <c r="M44">
-        <v>7.478646013594684</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="N44">
-        <v>0.1173622102217254</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O44">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P44">
-        <v>53.01178484095037</v>
+        <v>90.11131518605629</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2588,49 +2588,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>2.514826518717097</v>
+        <v>4.274791459036383</v>
       </c>
       <c r="C45">
-        <v>16.85584757485745</v>
+        <v>28.65216853390652</v>
       </c>
       <c r="D45">
-        <v>0.005026923781049057</v>
+        <v>0.008544943631108885</v>
       </c>
       <c r="E45">
-        <v>0.4781499876384451</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="F45">
-        <v>1.973497974446006</v>
+        <v>3.354621968075572</v>
       </c>
       <c r="G45">
-        <v>3.206126595537439</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="H45">
-        <v>0.7651071038561097</v>
+        <v>1.3005562365712</v>
       </c>
       <c r="I45">
-        <v>5.670679555037285</v>
+        <v>9.639222566004992</v>
       </c>
       <c r="J45">
-        <v>1.751798717864778</v>
+        <v>2.977769695581002</v>
       </c>
       <c r="K45">
-        <v>2.320135860723896</v>
+        <v>3.943849361937741</v>
       </c>
       <c r="L45">
-        <v>13.86579215327158</v>
+        <v>23.56956610264174</v>
       </c>
       <c r="M45">
-        <v>8.725087015860467</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="N45">
-        <v>0.224944236258307</v>
+        <v>0.3823682042318426</v>
       </c>
       <c r="O45">
-        <v>0.9348815103594442</v>
+        <v>1.589144804204746</v>
       </c>
       <c r="P45">
-        <v>59.29190172820935</v>
+        <v>100.7864809804348</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2638,49 +2638,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>2.116584196105006</v>
+        <v>3.597845010977837</v>
       </c>
       <c r="C46">
-        <v>14.18659312018794</v>
+        <v>24.11487498308262</v>
       </c>
       <c r="D46">
-        <v>0.006941942364305839</v>
+        <v>0.01180016025248369</v>
       </c>
       <c r="E46">
-        <v>0.6603023638816625</v>
+        <v>1.122405416236346</v>
       </c>
       <c r="F46">
-        <v>2.478346293490334</v>
+        <v>4.212781076187928</v>
       </c>
       <c r="G46">
-        <v>4.026298515326086</v>
+        <v>6.844045255903801</v>
       </c>
       <c r="H46">
-        <v>0.6834956794447916</v>
+        <v>1.161830238003606</v>
       </c>
       <c r="I46">
-        <v>5.06580706916664</v>
+        <v>8.611038825631125</v>
       </c>
       <c r="J46">
-        <v>3.347186835920203</v>
+        <v>5.689667096913699</v>
       </c>
       <c r="K46">
-        <v>4.433116733883158</v>
+        <v>7.535569316559611</v>
       </c>
       <c r="L46">
-        <v>26.80719816299171</v>
+        <v>45.5678277984407</v>
       </c>
       <c r="M46">
-        <v>16.8685015639969</v>
+        <v>28.6736782341954</v>
       </c>
       <c r="N46">
-        <v>0.1760433153325881</v>
+        <v>0.2992446815727465</v>
       </c>
       <c r="O46">
-        <v>0.7316463994117391</v>
+        <v>1.243678542421105</v>
       </c>
       <c r="P46">
-        <v>81.58806219150307</v>
+        <v>138.686286636379</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2688,49 +2688,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.450388705809469</v>
+        <v>2.465422249102116</v>
       </c>
       <c r="C47">
-        <v>9.721358816388939</v>
+        <v>16.52471108016114</v>
       </c>
       <c r="D47">
-        <v>0.008617583624655523</v>
+        <v>0.01464847479618666</v>
       </c>
       <c r="E47">
-        <v>0.8196856930944776</v>
+        <v>1.393330861534774</v>
       </c>
       <c r="F47">
-        <v>1.422754353670378</v>
+        <v>2.418448395589366</v>
       </c>
       <c r="G47">
-        <v>2.311393592131642</v>
+        <v>3.928988943204032</v>
       </c>
       <c r="H47">
-        <v>0.601884255033473</v>
+        <v>1.023104239436011</v>
       </c>
       <c r="I47">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="J47">
-        <v>4.097957715005106</v>
+        <v>6.965854109305558</v>
       </c>
       <c r="K47">
-        <v>5.427460674193399</v>
+        <v>9.225790471675788</v>
       </c>
       <c r="L47">
-        <v>18.88388836112225</v>
+        <v>32.09950431121685</v>
       </c>
       <c r="M47">
-        <v>11.88273755493378</v>
+        <v>20.19869944576325</v>
       </c>
       <c r="N47">
-        <v>0.1662631311474443</v>
+        <v>0.2826199770409272</v>
       </c>
       <c r="O47">
-        <v>0.6909993772221978</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="P47">
-        <v>61.94632439667321</v>
+        <v>105.2985629341476</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2738,49 +2738,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.590511004506317</v>
+        <v>2.70360711045605</v>
       </c>
       <c r="C48">
-        <v>10.66054093932821</v>
+        <v>18.12116621841399</v>
       </c>
       <c r="D48">
-        <v>0.009814470239191018</v>
+        <v>0.01668298518454591</v>
       </c>
       <c r="E48">
-        <v>0.9335309282464883</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="F48">
-        <v>3.442147629847686</v>
+        <v>5.851084828038791</v>
       </c>
       <c r="G48">
-        <v>5.59208127128623</v>
+        <v>9.505618410977501</v>
       </c>
       <c r="H48">
-        <v>0.6426899672391325</v>
+        <v>1.092467238719808</v>
       </c>
       <c r="I48">
-        <v>4.76337082623132</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="J48">
-        <v>3.957188175176688</v>
+        <v>6.726569044482086</v>
       </c>
       <c r="K48">
-        <v>5.24102118538523</v>
+        <v>8.908874005091505</v>
       </c>
       <c r="L48">
-        <v>24.69431554915986</v>
+        <v>41.97627486851433</v>
       </c>
       <c r="M48">
-        <v>15.5389644949134</v>
+        <v>26.41368389061351</v>
       </c>
       <c r="N48">
-        <v>0.2347244204434508</v>
+        <v>0.3989929087636619</v>
       </c>
       <c r="O48">
-        <v>0.9755285325489854</v>
+        <v>1.658238056561474</v>
       </c>
       <c r="P48">
-        <v>78.27642939455221</v>
+        <v>133.0570555580094</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2788,49 +2788,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.338536695446197</v>
+        <v>2.275292228196784</v>
       </c>
       <c r="C49">
-        <v>8.971660805972512</v>
+        <v>15.25034776804702</v>
       </c>
       <c r="D49">
-        <v>0.00813882897884133</v>
+        <v>0.01383467064084295</v>
       </c>
       <c r="E49">
-        <v>0.7741475990336733</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="F49">
-        <v>2.248869784833822</v>
+        <v>3.822708754318674</v>
       </c>
       <c r="G49">
-        <v>3.653493097240338</v>
+        <v>6.210337361838633</v>
       </c>
       <c r="H49">
-        <v>0.6834956794447916</v>
+        <v>1.161830238003606</v>
       </c>
       <c r="I49">
-        <v>5.06580706916664</v>
+        <v>8.611038825631125</v>
       </c>
       <c r="J49">
-        <v>2.674621256739976</v>
+        <v>4.546416231645995</v>
       </c>
       <c r="K49">
-        <v>3.542350287355234</v>
+        <v>6.021412865101372</v>
       </c>
       <c r="L49">
-        <v>32.08940469757137</v>
+        <v>54.54671012325661</v>
       </c>
       <c r="M49">
-        <v>20.19234423670565</v>
+        <v>34.32366409315015</v>
       </c>
       <c r="N49">
-        <v>0.1173622102217254</v>
+        <v>0.1994964543818309</v>
       </c>
       <c r="O49">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="P49">
-        <v>81.84799651498527</v>
+        <v>139.1281322339429</v>
       </c>
     </row>
   </sheetData>
